--- a/人才引进统计.xlsx
+++ b/人才引进统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="公司名单" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6531" uniqueCount="6531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="6537">
   <si>
     <t>公司名称</t>
   </si>
@@ -128,6 +128,9 @@
     <t>特斯拉（上海）有限公司</t>
   </si>
   <si>
+    <t>上海海思技术有限公司</t>
+  </si>
+  <si>
     <t>上海汽车集团股份有限公司技术中心</t>
   </si>
   <si>
@@ -140,9 +143,6 @@
     <t>昌硕科技（上海）有限公司</t>
   </si>
   <si>
-    <t>上海海思技术有限公司</t>
-  </si>
-  <si>
     <t>上海市政工程设计研究总院（集团）有限公司</t>
   </si>
   <si>
@@ -1124,6 +1124,9 @@
     <t>卫宁健康科技集团股份有限公司</t>
   </si>
   <si>
+    <t>中建八局科技建设有限公司</t>
+  </si>
+  <si>
     <t>上海积塔半导体有限公司</t>
   </si>
   <si>
@@ -1199,9 +1202,6 @@
     <t>中建八局装饰工程有限公司</t>
   </si>
   <si>
-    <t>中建八局科技建设有限公司</t>
-  </si>
-  <si>
     <t>格科微电子（上海）有限公司</t>
   </si>
   <si>
@@ -4694,6 +4694,9 @@
     <t>上海客齐集信息技术股份有限公司</t>
   </si>
   <si>
+    <t>上海启甄环境科技有限公司</t>
+  </si>
+  <si>
     <t>上海市宝山区大场医院（上海交通大学医学院附属仁济医院宝山分院）</t>
   </si>
   <si>
@@ -5894,9 +5897,6 @@
     <t>上海海螺川崎节能环保工程有限公司</t>
   </si>
   <si>
-    <t>上海启甄环境科技有限公司</t>
-  </si>
-  <si>
     <t>上海上咨会计师事务所有限公司</t>
   </si>
   <si>
@@ -8558,6 +8558,9 @@
     <t>上海江菱机电有限公司</t>
   </si>
   <si>
+    <t>上海交通大学医学院附属上海儿童医学中心</t>
+  </si>
+  <si>
     <t>上海金智晟东电力科技有限公司</t>
   </si>
   <si>
@@ -15860,9 +15863,6 @@
     <t>上海绩优机电股份有限公司</t>
   </si>
   <si>
-    <t>上海交通大学医学院附属上海儿童医学中心</t>
-  </si>
-  <si>
     <t>上海杰狮信息技术有限公司</t>
   </si>
   <si>
@@ -19523,6 +19523,21 @@
     <t>上海中弗新能源科技股份有限公司</t>
   </si>
   <si>
+    <t>上海晅奕企业管理有限公司</t>
+  </si>
+  <si>
+    <t>上海淀山湖门诊部有限公司</t>
+  </si>
+  <si>
+    <t>上海莉欢工程设计咨询事务所</t>
+  </si>
+  <si>
+    <t>上海勤超混凝土有限公司</t>
+  </si>
+  <si>
+    <t>上海誉谷生物科技有限公司</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -19599,6 +19614,9 @@
   </si>
   <si>
     <t>2204_1</t>
+  </si>
+  <si>
+    <t>2204_2</t>
   </si>
   <si>
     <t>累计引进数量</t>
@@ -19615,9 +19633,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -19632,27 +19650,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -19666,22 +19663,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19692,6 +19710,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19734,19 +19760,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19766,15 +19783,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19789,7 +19807,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19801,175 +19981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19980,36 +19998,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -20030,10 +20018,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -20042,8 +20028,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20074,58 +20090,57 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -20137,94 +20152,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -20613,17 +20631,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N6489"/>
+  <dimension ref="A1:N6494"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.125" customWidth="1"/>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
     <col min="2" max="13" width="6.375" customWidth="1"/>
-    <col min="14" max="14" width="5.375" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -21603,28 +21621,40 @@
         <v>37</v>
       </c>
       <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="C25">
-        <v>31</v>
-      </c>
-      <c r="D25">
-        <v>33</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
       </c>
       <c r="N25">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -21632,40 +21662,28 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>58</v>
+      </c>
+      <c r="I26">
         <v>4</v>
       </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
-      <c r="I26">
-        <v>6</v>
-      </c>
       <c r="J26">
-        <v>32</v>
-      </c>
-      <c r="K26">
-        <v>21</v>
-      </c>
-      <c r="L26">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -21673,31 +21691,37 @@
         <v>39</v>
       </c>
       <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
         <v>16</v>
       </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
       <c r="D27">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <v>21</v>
+      </c>
+      <c r="L27">
+        <v>12</v>
       </c>
       <c r="N27">
         <v>135</v>
@@ -21708,40 +21732,34 @@
         <v>40</v>
       </c>
       <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
         <v>18</v>
       </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
       <c r="D28">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>16</v>
       </c>
       <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
         <v>10</v>
       </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>20</v>
-      </c>
       <c r="I28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>13</v>
-      </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-      <c r="L28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -21749,34 +21767,37 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
       </c>
       <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
         <v>5</v>
-      </c>
-      <c r="F29">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>14</v>
-      </c>
-      <c r="I29">
-        <v>20</v>
-      </c>
-      <c r="J29">
-        <v>30</v>
-      </c>
-      <c r="K29">
-        <v>8</v>
-      </c>
-      <c r="L29">
-        <v>26</v>
       </c>
       <c r="N29">
         <v>129</v>
@@ -32914,25 +32935,34 @@
         <v>369</v>
       </c>
       <c r="C357">
-        <v>3</v>
-      </c>
-      <c r="D357">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E357">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="J357">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K357">
+        <v>2</v>
       </c>
       <c r="L357">
         <v>4</v>
+      </c>
+      <c r="M357">
+        <v>2</v>
       </c>
       <c r="N357">
         <v>17</v>
@@ -32942,23 +32972,26 @@
       <c r="A358" t="s">
         <v>370</v>
       </c>
+      <c r="C358">
+        <v>3</v>
+      </c>
       <c r="D358">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E358">
         <v>3</v>
       </c>
-      <c r="F358">
-        <v>1</v>
-      </c>
-      <c r="G358">
-        <v>3</v>
-      </c>
-      <c r="K358">
-        <v>2</v>
+      <c r="H358">
+        <v>3</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
       </c>
       <c r="L358">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N358">
         <v>17</v>
@@ -32968,20 +33001,23 @@
       <c r="A359" t="s">
         <v>371</v>
       </c>
+      <c r="D359">
+        <v>7</v>
+      </c>
       <c r="E359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F359">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G359">
-        <v>1</v>
-      </c>
-      <c r="J359">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="K359">
+        <v>2</v>
       </c>
       <c r="L359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N359">
         <v>17</v>
@@ -32991,20 +33027,20 @@
       <c r="A360" t="s">
         <v>372</v>
       </c>
-      <c r="H360">
-        <v>3</v>
-      </c>
-      <c r="I360">
+      <c r="E360">
+        <v>2</v>
+      </c>
+      <c r="F360">
         <v>6</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
       </c>
       <c r="J360">
         <v>6</v>
       </c>
-      <c r="K360">
-        <v>1</v>
-      </c>
       <c r="L360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N360">
         <v>17</v>
@@ -33014,29 +33050,23 @@
       <c r="A361" t="s">
         <v>373</v>
       </c>
-      <c r="B361">
-        <v>4</v>
-      </c>
-      <c r="D361">
-        <v>4</v>
-      </c>
-      <c r="E361">
-        <v>4</v>
-      </c>
-      <c r="F361">
-        <v>1</v>
-      </c>
-      <c r="G361">
-        <v>1</v>
-      </c>
       <c r="H361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I361">
+        <v>6</v>
+      </c>
+      <c r="J361">
+        <v>6</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="L361">
         <v>1</v>
       </c>
       <c r="N361">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -33044,28 +33074,25 @@
         <v>374</v>
       </c>
       <c r="B362">
-        <v>2</v>
-      </c>
-      <c r="C362">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>4</v>
       </c>
       <c r="E362">
+        <v>4</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
         <v>1</v>
       </c>
       <c r="H362">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I362">
         <v>1</v>
-      </c>
-      <c r="J362">
-        <v>2</v>
-      </c>
-      <c r="K362">
-        <v>1</v>
-      </c>
-      <c r="L362">
-        <v>3</v>
       </c>
       <c r="N362">
         <v>16</v>
@@ -33076,25 +33103,28 @@
         <v>375</v>
       </c>
       <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="H363">
         <v>4</v>
       </c>
-      <c r="D363">
-        <v>2</v>
-      </c>
-      <c r="E363">
-        <v>1</v>
-      </c>
-      <c r="F363">
-        <v>1</v>
-      </c>
-      <c r="G363">
-        <v>4</v>
-      </c>
-      <c r="H363">
-        <v>3</v>
+      <c r="I363">
+        <v>1</v>
       </c>
       <c r="J363">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>3</v>
       </c>
       <c r="N363">
         <v>16</v>
@@ -33107,17 +33137,23 @@
       <c r="B364">
         <v>4</v>
       </c>
-      <c r="C364">
-        <v>1</v>
+      <c r="D364">
+        <v>2</v>
       </c>
       <c r="E364">
         <v>1</v>
       </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>4</v>
+      </c>
+      <c r="H364">
+        <v>3</v>
+      </c>
       <c r="J364">
-        <v>4</v>
-      </c>
-      <c r="K364">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N364">
         <v>16</v>
@@ -33130,23 +33166,17 @@
       <c r="B365">
         <v>4</v>
       </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
       <c r="E365">
-        <v>5</v>
-      </c>
-      <c r="F365">
-        <v>2</v>
-      </c>
-      <c r="G365">
-        <v>1</v>
-      </c>
-      <c r="H365">
-        <v>2</v>
-      </c>
-      <c r="I365">
         <v>1</v>
       </c>
       <c r="J365">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K365">
+        <v>6</v>
       </c>
       <c r="N365">
         <v>16</v>
@@ -33157,16 +33187,10 @@
         <v>378</v>
       </c>
       <c r="B366">
-        <v>1</v>
-      </c>
-      <c r="C366">
-        <v>1</v>
-      </c>
-      <c r="D366">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E366">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F366">
         <v>2</v>
@@ -33175,15 +33199,12 @@
         <v>1</v>
       </c>
       <c r="H366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J366">
-        <v>1</v>
-      </c>
-      <c r="K366">
         <v>1</v>
       </c>
       <c r="N366">
@@ -33197,23 +33218,32 @@
       <c r="B367">
         <v>1</v>
       </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
       <c r="D367">
         <v>2</v>
       </c>
       <c r="E367">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F367">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J367">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K367">
+        <v>1</v>
       </c>
       <c r="N367">
         <v>16</v>
@@ -33224,25 +33254,25 @@
         <v>380</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E368">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F368">
-        <v>3</v>
-      </c>
-      <c r="G368">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H368">
         <v>1</v>
       </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
       <c r="J368">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N368">
         <v>16</v>
@@ -33253,24 +33283,24 @@
         <v>381</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E369">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F369">
+        <v>3</v>
+      </c>
+      <c r="G369">
+        <v>2</v>
       </c>
       <c r="H369">
-        <v>2</v>
-      </c>
-      <c r="I369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J369">
-        <v>4</v>
-      </c>
-      <c r="K369">
         <v>1</v>
       </c>
       <c r="N369">
@@ -33282,24 +33312,24 @@
         <v>382</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D370">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E370">
-        <v>1</v>
-      </c>
-      <c r="F370">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370">
+        <v>2</v>
+      </c>
+      <c r="J370">
         <v>4</v>
       </c>
-      <c r="J370">
+      <c r="K370">
         <v>1</v>
       </c>
       <c r="N370">
@@ -33313,32 +33343,23 @@
       <c r="B371">
         <v>1</v>
       </c>
-      <c r="C371">
-        <v>1</v>
-      </c>
       <c r="D371">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E371">
-        <v>3</v>
-      </c>
-      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="F371">
         <v>2</v>
       </c>
       <c r="H371">
         <v>1</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J371">
         <v>1</v>
-      </c>
-      <c r="K371">
-        <v>2</v>
-      </c>
-      <c r="L371">
-        <v>2</v>
       </c>
       <c r="N371">
         <v>16</v>
@@ -33355,22 +33376,28 @@
         <v>1</v>
       </c>
       <c r="D372">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E372">
-        <v>5</v>
-      </c>
-      <c r="F372">
+        <v>3</v>
+      </c>
+      <c r="G372">
         <v>2</v>
       </c>
       <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
         <v>2</v>
       </c>
       <c r="J372">
         <v>1</v>
       </c>
+      <c r="K372">
+        <v>2</v>
+      </c>
       <c r="L372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N372">
         <v>16</v>
@@ -33384,15 +33411,24 @@
         <v>1</v>
       </c>
       <c r="C373">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D373">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E373">
+        <v>5</v>
+      </c>
+      <c r="F373">
+        <v>2</v>
       </c>
       <c r="H373">
         <v>2</v>
       </c>
-      <c r="I373">
+      <c r="J373">
+        <v>1</v>
+      </c>
+      <c r="L373">
         <v>1</v>
       </c>
       <c r="N373">
@@ -33407,21 +33443,15 @@
         <v>1</v>
       </c>
       <c r="C374">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D374">
-        <v>2</v>
-      </c>
-      <c r="E374">
-        <v>3</v>
-      </c>
-      <c r="F374">
-        <v>2</v>
-      </c>
-      <c r="K374">
-        <v>2</v>
-      </c>
-      <c r="M374">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>2</v>
+      </c>
+      <c r="I374">
         <v>1</v>
       </c>
       <c r="N374">
@@ -33433,28 +33463,25 @@
         <v>387</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C375">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
       </c>
       <c r="E375">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F375">
-        <v>1</v>
-      </c>
-      <c r="H375">
-        <v>3</v>
-      </c>
-      <c r="I375">
-        <v>2</v>
-      </c>
-      <c r="J375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K375">
         <v>2</v>
+      </c>
+      <c r="M375">
+        <v>1</v>
       </c>
       <c r="N375">
         <v>16</v>
@@ -33468,16 +33495,13 @@
         <v>2</v>
       </c>
       <c r="C376">
-        <v>1</v>
-      </c>
-      <c r="D376">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E376">
         <v>1</v>
       </c>
       <c r="F376">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H376">
         <v>3</v>
@@ -33485,8 +33509,11 @@
       <c r="I376">
         <v>2</v>
       </c>
+      <c r="J376">
+        <v>1</v>
+      </c>
       <c r="K376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N376">
         <v>16</v>
@@ -33497,21 +33524,27 @@
         <v>389</v>
       </c>
       <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="C377">
         <v>1</v>
       </c>
       <c r="D377">
-        <v>3</v>
-      </c>
-      <c r="G377">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>4</v>
       </c>
       <c r="H377">
-        <v>2</v>
-      </c>
-      <c r="J377">
-        <v>3</v>
-      </c>
-      <c r="L377">
+        <v>3</v>
+      </c>
+      <c r="I377">
+        <v>2</v>
+      </c>
+      <c r="K377">
         <v>1</v>
       </c>
       <c r="N377">
@@ -33523,30 +33556,21 @@
         <v>390</v>
       </c>
       <c r="B378">
-        <v>2</v>
-      </c>
-      <c r="C378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D378">
-        <v>4</v>
-      </c>
-      <c r="E378">
-        <v>1</v>
-      </c>
-      <c r="F378">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G378">
+        <v>6</v>
       </c>
       <c r="H378">
-        <v>1</v>
-      </c>
-      <c r="I378">
         <v>2</v>
       </c>
       <c r="J378">
-        <v>1</v>
-      </c>
-      <c r="K378">
+        <v>3</v>
+      </c>
+      <c r="L378">
         <v>1</v>
       </c>
       <c r="N378">
@@ -33558,7 +33582,7 @@
         <v>391</v>
       </c>
       <c r="B379">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C379">
         <v>2</v>
@@ -33566,13 +33590,22 @@
       <c r="D379">
         <v>4</v>
       </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>2</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
       <c r="I379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J379">
-        <v>5</v>
-      </c>
-      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="K379">
         <v>1</v>
       </c>
       <c r="N379">
@@ -33584,33 +33617,21 @@
         <v>392</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C380">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D380">
-        <v>1</v>
-      </c>
-      <c r="E380">
-        <v>1</v>
-      </c>
-      <c r="F380">
-        <v>1</v>
-      </c>
-      <c r="G380">
-        <v>1</v>
-      </c>
-      <c r="H380">
         <v>4</v>
       </c>
       <c r="I380">
         <v>1</v>
       </c>
       <c r="J380">
-        <v>2</v>
-      </c>
-      <c r="K380">
+        <v>5</v>
+      </c>
+      <c r="L380">
         <v>1</v>
       </c>
       <c r="N380">
@@ -33621,29 +33642,35 @@
       <c r="A381" t="s">
         <v>393</v>
       </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
       <c r="C381">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D381">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
       </c>
       <c r="G381">
         <v>1</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I381">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J381">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K381">
-        <v>2</v>
-      </c>
-      <c r="L381">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N381">
         <v>16</v>
@@ -33656,11 +33683,8 @@
       <c r="C382">
         <v>1</v>
       </c>
-      <c r="E382">
-        <v>1</v>
-      </c>
-      <c r="F382">
-        <v>1</v>
+      <c r="D382">
+        <v>2</v>
       </c>
       <c r="G382">
         <v>1</v>
@@ -33669,7 +33693,7 @@
         <v>1</v>
       </c>
       <c r="I382">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J382">
         <v>3</v>
@@ -33678,10 +33702,7 @@
         <v>2</v>
       </c>
       <c r="L382">
-        <v>4</v>
-      </c>
-      <c r="M382">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N382">
         <v>16</v>
@@ -58690,13 +58711,13 @@
       <c r="G1547">
         <v>1</v>
       </c>
-      <c r="H1547">
-        <v>1</v>
-      </c>
-      <c r="K1547">
-        <v>1</v>
-      </c>
-      <c r="L1547">
+      <c r="I1547">
+        <v>1</v>
+      </c>
+      <c r="J1547">
+        <v>1</v>
+      </c>
+      <c r="M1547">
         <v>1</v>
       </c>
       <c r="N1547">
@@ -58710,10 +58731,13 @@
       <c r="G1548">
         <v>1</v>
       </c>
-      <c r="J1548">
-        <v>2</v>
+      <c r="H1548">
+        <v>1</v>
       </c>
       <c r="K1548">
+        <v>1</v>
+      </c>
+      <c r="L1548">
         <v>1</v>
       </c>
       <c r="N1548">
@@ -58727,11 +58751,8 @@
       <c r="G1549">
         <v>1</v>
       </c>
-      <c r="H1549">
-        <v>1</v>
-      </c>
-      <c r="I1549">
-        <v>1</v>
+      <c r="J1549">
+        <v>2</v>
       </c>
       <c r="K1549">
         <v>1</v>
@@ -58745,10 +58766,16 @@
         <v>1562</v>
       </c>
       <c r="G1550">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1550">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I1550">
+        <v>1</v>
+      </c>
+      <c r="K1550">
+        <v>1</v>
       </c>
       <c r="N1550">
         <v>4</v>
@@ -58759,16 +58786,10 @@
         <v>1563</v>
       </c>
       <c r="G1551">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1551">
-        <v>1</v>
-      </c>
-      <c r="K1551">
-        <v>1</v>
-      </c>
-      <c r="L1551">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1551">
         <v>4</v>
@@ -58784,8 +58805,11 @@
       <c r="H1552">
         <v>1</v>
       </c>
-      <c r="I1552">
-        <v>2</v>
+      <c r="K1552">
+        <v>1</v>
+      </c>
+      <c r="L1552">
+        <v>1</v>
       </c>
       <c r="N1552">
         <v>4</v>
@@ -58799,10 +58823,10 @@
         <v>1</v>
       </c>
       <c r="H1553">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1553">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1553">
         <v>4</v>
@@ -58816,10 +58840,10 @@
         <v>1</v>
       </c>
       <c r="H1554">
-        <v>1</v>
-      </c>
-      <c r="L1554">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I1554">
+        <v>1</v>
       </c>
       <c r="N1554">
         <v>4</v>
@@ -58829,8 +58853,14 @@
       <c r="A1555" t="s">
         <v>1567</v>
       </c>
+      <c r="G1555">
+        <v>1</v>
+      </c>
       <c r="H1555">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L1555">
+        <v>2</v>
       </c>
       <c r="N1555">
         <v>4</v>
@@ -58852,10 +58882,7 @@
         <v>1569</v>
       </c>
       <c r="H1557">
-        <v>3</v>
-      </c>
-      <c r="K1557">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N1557">
         <v>4</v>
@@ -58866,10 +58893,7 @@
         <v>1570</v>
       </c>
       <c r="H1558">
-        <v>2</v>
-      </c>
-      <c r="I1558">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K1558">
         <v>1</v>
@@ -58883,7 +58907,13 @@
         <v>1571</v>
       </c>
       <c r="H1559">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I1559">
+        <v>1</v>
+      </c>
+      <c r="K1559">
+        <v>1</v>
       </c>
       <c r="N1559">
         <v>4</v>
@@ -58894,13 +58924,7 @@
         <v>1572</v>
       </c>
       <c r="H1560">
-        <v>1</v>
-      </c>
-      <c r="I1560">
-        <v>1</v>
-      </c>
-      <c r="J1560">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N1560">
         <v>4</v>
@@ -58911,13 +58935,13 @@
         <v>1573</v>
       </c>
       <c r="H1561">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I1561">
+        <v>1</v>
       </c>
       <c r="J1561">
-        <v>1</v>
-      </c>
-      <c r="K1561">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1561">
         <v>4</v>
@@ -58928,9 +58952,12 @@
         <v>1574</v>
       </c>
       <c r="H1562">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1562">
+        <v>1</v>
+      </c>
+      <c r="K1562">
         <v>1</v>
       </c>
       <c r="N1562">
@@ -58956,15 +58983,9 @@
         <v>1576</v>
       </c>
       <c r="H1564">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1564">
-        <v>1</v>
-      </c>
-      <c r="K1564">
-        <v>1</v>
-      </c>
-      <c r="L1564">
         <v>1</v>
       </c>
       <c r="N1564">
@@ -58976,10 +58997,16 @@
         <v>1577</v>
       </c>
       <c r="H1565">
-        <v>2</v>
-      </c>
-      <c r="I1565">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J1565">
+        <v>1</v>
+      </c>
+      <c r="K1565">
+        <v>1</v>
+      </c>
+      <c r="L1565">
+        <v>1</v>
       </c>
       <c r="N1565">
         <v>4</v>
@@ -58990,12 +59017,9 @@
         <v>1578</v>
       </c>
       <c r="H1566">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1566">
-        <v>1</v>
-      </c>
-      <c r="J1566">
         <v>2</v>
       </c>
       <c r="N1566">
@@ -59007,9 +59031,12 @@
         <v>1579</v>
       </c>
       <c r="H1567">
-        <v>2</v>
-      </c>
-      <c r="M1567">
+        <v>1</v>
+      </c>
+      <c r="I1567">
+        <v>1</v>
+      </c>
+      <c r="J1567">
         <v>2</v>
       </c>
       <c r="N1567">
@@ -59023,11 +59050,8 @@
       <c r="H1568">
         <v>2</v>
       </c>
-      <c r="I1568">
-        <v>1</v>
-      </c>
-      <c r="J1568">
-        <v>1</v>
+      <c r="M1568">
+        <v>2</v>
       </c>
       <c r="N1568">
         <v>4</v>
@@ -59038,7 +59062,10 @@
         <v>1581</v>
       </c>
       <c r="H1569">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I1569">
+        <v>1</v>
       </c>
       <c r="J1569">
         <v>1</v>
@@ -59054,7 +59081,7 @@
       <c r="H1570">
         <v>3</v>
       </c>
-      <c r="I1570">
+      <c r="J1570">
         <v>1</v>
       </c>
       <c r="N1570">
@@ -59068,7 +59095,7 @@
       <c r="H1571">
         <v>3</v>
       </c>
-      <c r="L1571">
+      <c r="I1571">
         <v>1</v>
       </c>
       <c r="N1571">
@@ -59079,11 +59106,8 @@
       <c r="A1572" t="s">
         <v>1584</v>
       </c>
-      <c r="I1572">
-        <v>2</v>
-      </c>
-      <c r="K1572">
-        <v>1</v>
+      <c r="H1572">
+        <v>3</v>
       </c>
       <c r="L1572">
         <v>1</v>
@@ -59100,7 +59124,10 @@
         <v>2</v>
       </c>
       <c r="K1573">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L1573">
+        <v>1</v>
       </c>
       <c r="N1573">
         <v>4</v>
@@ -59113,7 +59140,7 @@
       <c r="I1574">
         <v>2</v>
       </c>
-      <c r="L1574">
+      <c r="K1574">
         <v>2</v>
       </c>
       <c r="N1574">
@@ -59125,10 +59152,7 @@
         <v>1587</v>
       </c>
       <c r="I1575">
-        <v>1</v>
-      </c>
-      <c r="J1575">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L1575">
         <v>2</v>
@@ -59141,11 +59165,14 @@
       <c r="A1576" t="s">
         <v>1588</v>
       </c>
-      <c r="K1576">
-        <v>3</v>
+      <c r="I1576">
+        <v>1</v>
+      </c>
+      <c r="J1576">
+        <v>1</v>
       </c>
       <c r="L1576">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1576">
         <v>4</v>
@@ -59156,10 +59183,10 @@
         <v>1589</v>
       </c>
       <c r="K1577">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L1577">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N1577">
         <v>4</v>
@@ -59184,10 +59211,10 @@
         <v>1591</v>
       </c>
       <c r="K1579">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L1579">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1579">
         <v>4</v>
@@ -59197,8 +59224,11 @@
       <c r="A1580" t="s">
         <v>1592</v>
       </c>
+      <c r="K1580">
+        <v>3</v>
+      </c>
       <c r="L1580">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N1580">
         <v>4</v>
@@ -59208,14 +59238,11 @@
       <c r="A1581" t="s">
         <v>1593</v>
       </c>
-      <c r="B1581">
-        <v>2</v>
-      </c>
-      <c r="E1581">
-        <v>1</v>
+      <c r="L1581">
+        <v>4</v>
       </c>
       <c r="N1581">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1582" spans="1:14">
@@ -59223,12 +59250,9 @@
         <v>1594</v>
       </c>
       <c r="B1582">
-        <v>1</v>
-      </c>
-      <c r="C1582">
-        <v>1</v>
-      </c>
-      <c r="K1582">
+        <v>2</v>
+      </c>
+      <c r="E1582">
         <v>1</v>
       </c>
       <c r="N1582">
@@ -59240,9 +59264,12 @@
         <v>1595</v>
       </c>
       <c r="B1583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1583">
+        <v>1</v>
+      </c>
+      <c r="K1583">
         <v>1</v>
       </c>
       <c r="N1583">
@@ -59254,12 +59281,9 @@
         <v>1596</v>
       </c>
       <c r="B1584">
-        <v>1</v>
-      </c>
-      <c r="D1584">
-        <v>1</v>
-      </c>
-      <c r="H1584">
+        <v>2</v>
+      </c>
+      <c r="C1584">
         <v>1</v>
       </c>
       <c r="N1584">
@@ -59271,9 +59295,12 @@
         <v>1597</v>
       </c>
       <c r="B1585">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1585">
+        <v>1</v>
+      </c>
+      <c r="H1585">
         <v>1</v>
       </c>
       <c r="N1585">
@@ -59285,12 +59312,9 @@
         <v>1598</v>
       </c>
       <c r="B1586">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1586">
-        <v>1</v>
-      </c>
-      <c r="H1586">
         <v>1</v>
       </c>
       <c r="N1586">
@@ -59304,8 +59328,11 @@
       <c r="B1587">
         <v>1</v>
       </c>
+      <c r="D1587">
+        <v>1</v>
+      </c>
       <c r="H1587">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1587">
         <v>3</v>
@@ -59316,10 +59343,10 @@
         <v>1600</v>
       </c>
       <c r="B1588">
-        <v>2</v>
-      </c>
-      <c r="D1588">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H1588">
+        <v>2</v>
       </c>
       <c r="N1588">
         <v>3</v>
@@ -59330,12 +59357,9 @@
         <v>1601</v>
       </c>
       <c r="B1589">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1589">
-        <v>1</v>
-      </c>
-      <c r="F1589">
         <v>1</v>
       </c>
       <c r="N1589">
@@ -59349,10 +59373,10 @@
       <c r="B1590">
         <v>1</v>
       </c>
-      <c r="H1590">
-        <v>1</v>
-      </c>
-      <c r="I1590">
+      <c r="D1590">
+        <v>1</v>
+      </c>
+      <c r="F1590">
         <v>1</v>
       </c>
       <c r="N1590">
@@ -59364,9 +59388,12 @@
         <v>1603</v>
       </c>
       <c r="B1591">
-        <v>2</v>
-      </c>
-      <c r="D1591">
+        <v>1</v>
+      </c>
+      <c r="H1591">
+        <v>1</v>
+      </c>
+      <c r="I1591">
         <v>1</v>
       </c>
       <c r="N1591">
@@ -59392,12 +59419,9 @@
         <v>1605</v>
       </c>
       <c r="B1593">
-        <v>1</v>
-      </c>
-      <c r="G1593">
-        <v>1</v>
-      </c>
-      <c r="K1593">
+        <v>2</v>
+      </c>
+      <c r="D1593">
         <v>1</v>
       </c>
       <c r="N1593">
@@ -59411,7 +59435,7 @@
       <c r="B1594">
         <v>1</v>
       </c>
-      <c r="D1594">
+      <c r="G1594">
         <v>1</v>
       </c>
       <c r="K1594">
@@ -59428,10 +59452,10 @@
       <c r="B1595">
         <v>1</v>
       </c>
-      <c r="E1595">
-        <v>1</v>
-      </c>
-      <c r="L1595">
+      <c r="D1595">
+        <v>1</v>
+      </c>
+      <c r="K1595">
         <v>1</v>
       </c>
       <c r="N1595">
@@ -59445,10 +59469,10 @@
       <c r="B1596">
         <v>1</v>
       </c>
-      <c r="F1596">
-        <v>1</v>
-      </c>
-      <c r="H1596">
+      <c r="E1596">
+        <v>1</v>
+      </c>
+      <c r="L1596">
         <v>1</v>
       </c>
       <c r="N1596">
@@ -59465,7 +59489,7 @@
       <c r="F1597">
         <v>1</v>
       </c>
-      <c r="I1597">
+      <c r="H1597">
         <v>1</v>
       </c>
       <c r="N1597">
@@ -59479,10 +59503,10 @@
       <c r="B1598">
         <v>1</v>
       </c>
-      <c r="C1598">
-        <v>1</v>
-      </c>
-      <c r="K1598">
+      <c r="F1598">
+        <v>1</v>
+      </c>
+      <c r="I1598">
         <v>1</v>
       </c>
       <c r="N1598">
@@ -59494,9 +59518,12 @@
         <v>1611</v>
       </c>
       <c r="B1599">
-        <v>2</v>
-      </c>
-      <c r="D1599">
+        <v>1</v>
+      </c>
+      <c r="C1599">
+        <v>1</v>
+      </c>
+      <c r="K1599">
         <v>1</v>
       </c>
       <c r="N1599">
@@ -59508,12 +59535,9 @@
         <v>1612</v>
       </c>
       <c r="B1600">
-        <v>1</v>
-      </c>
-      <c r="G1600">
-        <v>1</v>
-      </c>
-      <c r="J1600">
+        <v>2</v>
+      </c>
+      <c r="D1600">
         <v>1</v>
       </c>
       <c r="N1600">
@@ -59527,10 +59551,10 @@
       <c r="B1601">
         <v>1</v>
       </c>
-      <c r="F1601">
-        <v>1</v>
-      </c>
       <c r="G1601">
+        <v>1</v>
+      </c>
+      <c r="J1601">
         <v>1</v>
       </c>
       <c r="N1601">
@@ -59544,10 +59568,10 @@
       <c r="B1602">
         <v>1</v>
       </c>
-      <c r="E1602">
-        <v>1</v>
-      </c>
-      <c r="I1602">
+      <c r="F1602">
+        <v>1</v>
+      </c>
+      <c r="G1602">
         <v>1</v>
       </c>
       <c r="N1602">
@@ -59559,9 +59583,12 @@
         <v>1615</v>
       </c>
       <c r="B1603">
-        <v>2</v>
-      </c>
-      <c r="D1603">
+        <v>1</v>
+      </c>
+      <c r="E1603">
+        <v>1</v>
+      </c>
+      <c r="I1603">
         <v>1</v>
       </c>
       <c r="N1603">
@@ -59573,12 +59600,9 @@
         <v>1616</v>
       </c>
       <c r="B1604">
-        <v>1</v>
-      </c>
-      <c r="C1604">
-        <v>1</v>
-      </c>
-      <c r="F1604">
+        <v>2</v>
+      </c>
+      <c r="D1604">
         <v>1</v>
       </c>
       <c r="N1604">
@@ -59592,10 +59616,10 @@
       <c r="B1605">
         <v>1</v>
       </c>
+      <c r="C1605">
+        <v>1</v>
+      </c>
       <c r="F1605">
-        <v>1</v>
-      </c>
-      <c r="I1605">
         <v>1</v>
       </c>
       <c r="N1605">
@@ -59607,7 +59631,13 @@
         <v>1618</v>
       </c>
       <c r="B1606">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F1606">
+        <v>1</v>
+      </c>
+      <c r="I1606">
+        <v>1</v>
       </c>
       <c r="N1606">
         <v>3</v>
@@ -59618,13 +59648,7 @@
         <v>1619</v>
       </c>
       <c r="B1607">
-        <v>1</v>
-      </c>
-      <c r="J1607">
-        <v>1</v>
-      </c>
-      <c r="K1607">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1607">
         <v>3</v>
@@ -59637,10 +59661,10 @@
       <c r="B1608">
         <v>1</v>
       </c>
-      <c r="D1608">
-        <v>1</v>
-      </c>
-      <c r="E1608">
+      <c r="J1608">
+        <v>1</v>
+      </c>
+      <c r="K1608">
         <v>1</v>
       </c>
       <c r="N1608">
@@ -59657,7 +59681,7 @@
       <c r="D1609">
         <v>1</v>
       </c>
-      <c r="J1609">
+      <c r="E1609">
         <v>1</v>
       </c>
       <c r="N1609">
@@ -59671,10 +59695,10 @@
       <c r="B1610">
         <v>1</v>
       </c>
-      <c r="G1610">
-        <v>1</v>
-      </c>
-      <c r="I1610">
+      <c r="D1610">
+        <v>1</v>
+      </c>
+      <c r="J1610">
         <v>1</v>
       </c>
       <c r="N1610">
@@ -59686,9 +59710,12 @@
         <v>1623</v>
       </c>
       <c r="B1611">
-        <v>2</v>
-      </c>
-      <c r="J1611">
+        <v>1</v>
+      </c>
+      <c r="G1611">
+        <v>1</v>
+      </c>
+      <c r="I1611">
         <v>1</v>
       </c>
       <c r="N1611">
@@ -59700,7 +59727,10 @@
         <v>1624</v>
       </c>
       <c r="B1612">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J1612">
+        <v>1</v>
       </c>
       <c r="N1612">
         <v>3</v>
@@ -59711,13 +59741,7 @@
         <v>1625</v>
       </c>
       <c r="B1613">
-        <v>1</v>
-      </c>
-      <c r="E1613">
-        <v>1</v>
-      </c>
-      <c r="L1613">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1613">
         <v>3</v>
@@ -59730,10 +59754,10 @@
       <c r="B1614">
         <v>1</v>
       </c>
-      <c r="C1614">
-        <v>1</v>
-      </c>
-      <c r="F1614">
+      <c r="E1614">
+        <v>1</v>
+      </c>
+      <c r="L1614">
         <v>1</v>
       </c>
       <c r="N1614">
@@ -59747,8 +59771,11 @@
       <c r="B1615">
         <v>1</v>
       </c>
-      <c r="E1615">
-        <v>2</v>
+      <c r="C1615">
+        <v>1</v>
+      </c>
+      <c r="F1615">
+        <v>1</v>
       </c>
       <c r="N1615">
         <v>3</v>
@@ -59759,10 +59786,10 @@
         <v>1628</v>
       </c>
       <c r="B1616">
-        <v>2</v>
-      </c>
-      <c r="D1616">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E1616">
+        <v>2</v>
       </c>
       <c r="N1616">
         <v>3</v>
@@ -59773,12 +59800,9 @@
         <v>1629</v>
       </c>
       <c r="B1617">
-        <v>1</v>
-      </c>
-      <c r="H1617">
-        <v>1</v>
-      </c>
-      <c r="I1617">
+        <v>2</v>
+      </c>
+      <c r="D1617">
         <v>1</v>
       </c>
       <c r="N1617">
@@ -59790,9 +59814,12 @@
         <v>1630</v>
       </c>
       <c r="B1618">
-        <v>2</v>
-      </c>
-      <c r="E1618">
+        <v>1</v>
+      </c>
+      <c r="H1618">
+        <v>1</v>
+      </c>
+      <c r="I1618">
         <v>1</v>
       </c>
       <c r="N1618">
@@ -59804,12 +59831,9 @@
         <v>1631</v>
       </c>
       <c r="B1619">
-        <v>1</v>
-      </c>
-      <c r="C1619">
-        <v>1</v>
-      </c>
-      <c r="K1619">
+        <v>2</v>
+      </c>
+      <c r="E1619">
         <v>1</v>
       </c>
       <c r="N1619">
@@ -59823,8 +59847,11 @@
       <c r="B1620">
         <v>1</v>
       </c>
-      <c r="F1620">
-        <v>2</v>
+      <c r="C1620">
+        <v>1</v>
+      </c>
+      <c r="K1620">
+        <v>1</v>
       </c>
       <c r="N1620">
         <v>3</v>
@@ -59835,10 +59862,10 @@
         <v>1633</v>
       </c>
       <c r="B1621">
-        <v>2</v>
-      </c>
-      <c r="E1621">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F1621">
+        <v>2</v>
       </c>
       <c r="N1621">
         <v>3</v>
@@ -59849,10 +59876,10 @@
         <v>1634</v>
       </c>
       <c r="B1622">
-        <v>1</v>
-      </c>
-      <c r="J1622">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E1622">
+        <v>1</v>
       </c>
       <c r="N1622">
         <v>3</v>
@@ -59879,11 +59906,8 @@
       <c r="B1624">
         <v>1</v>
       </c>
-      <c r="D1624">
-        <v>1</v>
-      </c>
-      <c r="G1624">
-        <v>1</v>
+      <c r="J1624">
+        <v>2</v>
       </c>
       <c r="N1624">
         <v>3</v>
@@ -59896,10 +59920,10 @@
       <c r="B1625">
         <v>1</v>
       </c>
+      <c r="D1625">
+        <v>1</v>
+      </c>
       <c r="G1625">
-        <v>1</v>
-      </c>
-      <c r="I1625">
         <v>1</v>
       </c>
       <c r="N1625">
@@ -59913,10 +59937,10 @@
       <c r="B1626">
         <v>1</v>
       </c>
-      <c r="D1626">
-        <v>1</v>
-      </c>
-      <c r="J1626">
+      <c r="G1626">
+        <v>1</v>
+      </c>
+      <c r="I1626">
         <v>1</v>
       </c>
       <c r="N1626">
@@ -59930,10 +59954,10 @@
       <c r="B1627">
         <v>1</v>
       </c>
-      <c r="F1627">
-        <v>1</v>
-      </c>
-      <c r="G1627">
+      <c r="D1627">
+        <v>1</v>
+      </c>
+      <c r="J1627">
         <v>1</v>
       </c>
       <c r="N1627">
@@ -59947,7 +59971,7 @@
       <c r="B1628">
         <v>1</v>
       </c>
-      <c r="C1628">
+      <c r="F1628">
         <v>1</v>
       </c>
       <c r="G1628">
@@ -59967,7 +59991,7 @@
       <c r="C1629">
         <v>1</v>
       </c>
-      <c r="E1629">
+      <c r="G1629">
         <v>1</v>
       </c>
       <c r="N1629">
@@ -59979,9 +60003,12 @@
         <v>1642</v>
       </c>
       <c r="B1630">
-        <v>2</v>
-      </c>
-      <c r="D1630">
+        <v>1</v>
+      </c>
+      <c r="C1630">
+        <v>1</v>
+      </c>
+      <c r="E1630">
         <v>1</v>
       </c>
       <c r="N1630">
@@ -59993,12 +60020,9 @@
         <v>1643</v>
       </c>
       <c r="B1631">
-        <v>1</v>
-      </c>
-      <c r="C1631">
-        <v>1</v>
-      </c>
-      <c r="I1631">
+        <v>2</v>
+      </c>
+      <c r="D1631">
         <v>1</v>
       </c>
       <c r="N1631">
@@ -60029,8 +60053,11 @@
       <c r="B1633">
         <v>1</v>
       </c>
-      <c r="F1633">
-        <v>2</v>
+      <c r="C1633">
+        <v>1</v>
+      </c>
+      <c r="I1633">
+        <v>1</v>
       </c>
       <c r="N1633">
         <v>3</v>
@@ -60041,10 +60068,10 @@
         <v>1646</v>
       </c>
       <c r="B1634">
-        <v>2</v>
-      </c>
-      <c r="D1634">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F1634">
+        <v>2</v>
       </c>
       <c r="N1634">
         <v>3</v>
@@ -60057,7 +60084,7 @@
       <c r="B1635">
         <v>2</v>
       </c>
-      <c r="H1635">
+      <c r="D1635">
         <v>1</v>
       </c>
       <c r="N1635">
@@ -60069,12 +60096,9 @@
         <v>1648</v>
       </c>
       <c r="B1636">
-        <v>1</v>
-      </c>
-      <c r="F1636">
-        <v>1</v>
-      </c>
-      <c r="I1636">
+        <v>2</v>
+      </c>
+      <c r="H1636">
         <v>1</v>
       </c>
       <c r="N1636">
@@ -60086,9 +60110,12 @@
         <v>1649</v>
       </c>
       <c r="B1637">
-        <v>2</v>
-      </c>
-      <c r="C1637">
+        <v>1</v>
+      </c>
+      <c r="F1637">
+        <v>1</v>
+      </c>
+      <c r="I1637">
         <v>1</v>
       </c>
       <c r="N1637">
@@ -60100,12 +60127,9 @@
         <v>1650</v>
       </c>
       <c r="B1638">
-        <v>1</v>
-      </c>
-      <c r="G1638">
-        <v>1</v>
-      </c>
-      <c r="L1638">
+        <v>2</v>
+      </c>
+      <c r="C1638">
         <v>1</v>
       </c>
       <c r="N1638">
@@ -60117,9 +60141,12 @@
         <v>1651</v>
       </c>
       <c r="B1639">
-        <v>2</v>
-      </c>
-      <c r="J1639">
+        <v>1</v>
+      </c>
+      <c r="G1639">
+        <v>1</v>
+      </c>
+      <c r="L1639">
         <v>1</v>
       </c>
       <c r="N1639">
@@ -60131,12 +60158,9 @@
         <v>1652</v>
       </c>
       <c r="B1640">
-        <v>1</v>
-      </c>
-      <c r="D1640">
-        <v>1</v>
-      </c>
-      <c r="L1640">
+        <v>2</v>
+      </c>
+      <c r="J1640">
         <v>1</v>
       </c>
       <c r="N1640">
@@ -60148,9 +60172,12 @@
         <v>1653</v>
       </c>
       <c r="B1641">
-        <v>2</v>
-      </c>
-      <c r="H1641">
+        <v>1</v>
+      </c>
+      <c r="D1641">
+        <v>1</v>
+      </c>
+      <c r="L1641">
         <v>1</v>
       </c>
       <c r="N1641">
@@ -60162,12 +60189,9 @@
         <v>1654</v>
       </c>
       <c r="B1642">
-        <v>1</v>
-      </c>
-      <c r="F1642">
-        <v>1</v>
-      </c>
-      <c r="K1642">
+        <v>2</v>
+      </c>
+      <c r="H1642">
         <v>1</v>
       </c>
       <c r="N1642">
@@ -60179,9 +60203,12 @@
         <v>1655</v>
       </c>
       <c r="B1643">
-        <v>2</v>
-      </c>
-      <c r="G1643">
+        <v>1</v>
+      </c>
+      <c r="F1643">
+        <v>1</v>
+      </c>
+      <c r="K1643">
         <v>1</v>
       </c>
       <c r="N1643">
@@ -60193,12 +60220,9 @@
         <v>1656</v>
       </c>
       <c r="B1644">
-        <v>1</v>
-      </c>
-      <c r="D1644">
-        <v>1</v>
-      </c>
-      <c r="H1644">
+        <v>2</v>
+      </c>
+      <c r="G1644">
         <v>1</v>
       </c>
       <c r="N1644">
@@ -60215,7 +60239,7 @@
       <c r="D1645">
         <v>1</v>
       </c>
-      <c r="J1645">
+      <c r="H1645">
         <v>1</v>
       </c>
       <c r="N1645">
@@ -60229,10 +60253,10 @@
       <c r="B1646">
         <v>1</v>
       </c>
-      <c r="E1646">
-        <v>1</v>
-      </c>
-      <c r="M1646">
+      <c r="D1646">
+        <v>1</v>
+      </c>
+      <c r="J1646">
         <v>1</v>
       </c>
       <c r="N1646">
@@ -60246,10 +60270,10 @@
       <c r="B1647">
         <v>1</v>
       </c>
-      <c r="G1647">
-        <v>1</v>
-      </c>
-      <c r="I1647">
+      <c r="E1647">
+        <v>1</v>
+      </c>
+      <c r="M1647">
         <v>1</v>
       </c>
       <c r="N1647">
@@ -60263,7 +60287,7 @@
       <c r="B1648">
         <v>1</v>
       </c>
-      <c r="H1648">
+      <c r="G1648">
         <v>1</v>
       </c>
       <c r="I1648">
@@ -60280,10 +60304,10 @@
       <c r="B1649">
         <v>1</v>
       </c>
-      <c r="F1649">
-        <v>1</v>
-      </c>
-      <c r="K1649">
+      <c r="H1649">
+        <v>1</v>
+      </c>
+      <c r="I1649">
         <v>1</v>
       </c>
       <c r="N1649">
@@ -60297,10 +60321,10 @@
       <c r="B1650">
         <v>1</v>
       </c>
-      <c r="H1650">
-        <v>1</v>
-      </c>
-      <c r="I1650">
+      <c r="F1650">
+        <v>1</v>
+      </c>
+      <c r="K1650">
         <v>1</v>
       </c>
       <c r="N1650">
@@ -60314,10 +60338,10 @@
       <c r="B1651">
         <v>1</v>
       </c>
-      <c r="C1651">
-        <v>1</v>
-      </c>
-      <c r="D1651">
+      <c r="H1651">
+        <v>1</v>
+      </c>
+      <c r="I1651">
         <v>1</v>
       </c>
       <c r="N1651">
@@ -60331,10 +60355,10 @@
       <c r="B1652">
         <v>1</v>
       </c>
-      <c r="E1652">
-        <v>1</v>
-      </c>
-      <c r="J1652">
+      <c r="C1652">
+        <v>1</v>
+      </c>
+      <c r="D1652">
         <v>1</v>
       </c>
       <c r="N1652">
@@ -60351,7 +60375,7 @@
       <c r="E1653">
         <v>1</v>
       </c>
-      <c r="H1653">
+      <c r="J1653">
         <v>1</v>
       </c>
       <c r="N1653">
@@ -60365,7 +60389,7 @@
       <c r="B1654">
         <v>1</v>
       </c>
-      <c r="F1654">
+      <c r="E1654">
         <v>1</v>
       </c>
       <c r="H1654">
@@ -60382,10 +60406,10 @@
       <c r="B1655">
         <v>1</v>
       </c>
-      <c r="E1655">
-        <v>1</v>
-      </c>
-      <c r="G1655">
+      <c r="F1655">
+        <v>1</v>
+      </c>
+      <c r="H1655">
         <v>1</v>
       </c>
       <c r="N1655">
@@ -60397,7 +60421,13 @@
         <v>1668</v>
       </c>
       <c r="B1656">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E1656">
+        <v>1</v>
+      </c>
+      <c r="G1656">
+        <v>1</v>
       </c>
       <c r="N1656">
         <v>3</v>
@@ -60408,13 +60438,7 @@
         <v>1669</v>
       </c>
       <c r="B1657">
-        <v>1</v>
-      </c>
-      <c r="E1657">
-        <v>1</v>
-      </c>
-      <c r="I1657">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1657">
         <v>3</v>
@@ -60430,7 +60454,7 @@
       <c r="E1658">
         <v>1</v>
       </c>
-      <c r="G1658">
+      <c r="I1658">
         <v>1</v>
       </c>
       <c r="N1658">
@@ -60444,10 +60468,10 @@
       <c r="B1659">
         <v>1</v>
       </c>
-      <c r="D1659">
-        <v>1</v>
-      </c>
-      <c r="I1659">
+      <c r="E1659">
+        <v>1</v>
+      </c>
+      <c r="G1659">
         <v>1</v>
       </c>
       <c r="N1659">
@@ -60461,8 +60485,11 @@
       <c r="B1660">
         <v>1</v>
       </c>
-      <c r="G1660">
-        <v>2</v>
+      <c r="D1660">
+        <v>1</v>
+      </c>
+      <c r="I1660">
+        <v>1</v>
       </c>
       <c r="N1660">
         <v>3</v>
@@ -60475,7 +60502,7 @@
       <c r="B1661">
         <v>1</v>
       </c>
-      <c r="D1661">
+      <c r="G1661">
         <v>2</v>
       </c>
       <c r="N1661">
@@ -60489,11 +60516,8 @@
       <c r="B1662">
         <v>1</v>
       </c>
-      <c r="I1662">
-        <v>1</v>
-      </c>
-      <c r="J1662">
-        <v>1</v>
+      <c r="D1662">
+        <v>2</v>
       </c>
       <c r="N1662">
         <v>3</v>
@@ -60506,10 +60530,10 @@
       <c r="B1663">
         <v>1</v>
       </c>
-      <c r="C1663">
-        <v>1</v>
-      </c>
-      <c r="L1663">
+      <c r="I1663">
+        <v>1</v>
+      </c>
+      <c r="J1663">
         <v>1</v>
       </c>
       <c r="N1663">
@@ -60526,7 +60550,7 @@
       <c r="C1664">
         <v>1</v>
       </c>
-      <c r="H1664">
+      <c r="L1664">
         <v>1</v>
       </c>
       <c r="N1664">
@@ -60540,10 +60564,10 @@
       <c r="B1665">
         <v>1</v>
       </c>
-      <c r="E1665">
-        <v>1</v>
-      </c>
-      <c r="F1665">
+      <c r="C1665">
+        <v>1</v>
+      </c>
+      <c r="H1665">
         <v>1</v>
       </c>
       <c r="N1665">
@@ -60560,7 +60584,7 @@
       <c r="E1666">
         <v>1</v>
       </c>
-      <c r="J1666">
+      <c r="F1666">
         <v>1</v>
       </c>
       <c r="N1666">
@@ -60574,10 +60598,10 @@
       <c r="B1667">
         <v>1</v>
       </c>
-      <c r="C1667">
-        <v>1</v>
-      </c>
-      <c r="L1667">
+      <c r="E1667">
+        <v>1</v>
+      </c>
+      <c r="J1667">
         <v>1</v>
       </c>
       <c r="N1667">
@@ -60594,7 +60618,7 @@
       <c r="C1668">
         <v>1</v>
       </c>
-      <c r="D1668">
+      <c r="L1668">
         <v>1</v>
       </c>
       <c r="N1668">
@@ -60608,10 +60632,10 @@
       <c r="B1669">
         <v>1</v>
       </c>
-      <c r="H1669">
-        <v>1</v>
-      </c>
-      <c r="I1669">
+      <c r="C1669">
+        <v>1</v>
+      </c>
+      <c r="D1669">
         <v>1</v>
       </c>
       <c r="N1669">
@@ -60625,10 +60649,10 @@
       <c r="B1670">
         <v>1</v>
       </c>
-      <c r="C1670">
-        <v>1</v>
-      </c>
-      <c r="K1670">
+      <c r="H1670">
+        <v>1</v>
+      </c>
+      <c r="I1670">
         <v>1</v>
       </c>
       <c r="N1670">
@@ -60642,10 +60666,10 @@
       <c r="B1671">
         <v>1</v>
       </c>
-      <c r="E1671">
-        <v>1</v>
-      </c>
-      <c r="G1671">
+      <c r="C1671">
+        <v>1</v>
+      </c>
+      <c r="K1671">
         <v>1</v>
       </c>
       <c r="N1671">
@@ -60657,9 +60681,12 @@
         <v>1684</v>
       </c>
       <c r="B1672">
-        <v>2</v>
-      </c>
-      <c r="J1672">
+        <v>1</v>
+      </c>
+      <c r="E1672">
+        <v>1</v>
+      </c>
+      <c r="G1672">
         <v>1</v>
       </c>
       <c r="N1672">
@@ -60671,12 +60698,9 @@
         <v>1685</v>
       </c>
       <c r="B1673">
-        <v>1</v>
-      </c>
-      <c r="E1673">
-        <v>1</v>
-      </c>
-      <c r="L1673">
+        <v>2</v>
+      </c>
+      <c r="J1673">
         <v>1</v>
       </c>
       <c r="N1673">
@@ -60688,7 +60712,13 @@
         <v>1686</v>
       </c>
       <c r="B1674">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E1674">
+        <v>1</v>
+      </c>
+      <c r="L1674">
+        <v>1</v>
       </c>
       <c r="N1674">
         <v>3</v>
@@ -60699,10 +60729,7 @@
         <v>1687</v>
       </c>
       <c r="B1675">
-        <v>1</v>
-      </c>
-      <c r="E1675">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N1675">
         <v>3</v>
@@ -60713,10 +60740,10 @@
         <v>1688</v>
       </c>
       <c r="B1676">
-        <v>2</v>
-      </c>
-      <c r="C1676">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E1676">
+        <v>2</v>
       </c>
       <c r="N1676">
         <v>3</v>
@@ -60727,12 +60754,9 @@
         <v>1689</v>
       </c>
       <c r="B1677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1677">
-        <v>1</v>
-      </c>
-      <c r="K1677">
         <v>1</v>
       </c>
       <c r="N1677">
@@ -60746,10 +60770,10 @@
       <c r="B1678">
         <v>1</v>
       </c>
-      <c r="I1678">
-        <v>1</v>
-      </c>
-      <c r="L1678">
+      <c r="C1678">
+        <v>1</v>
+      </c>
+      <c r="K1678">
         <v>1</v>
       </c>
       <c r="N1678">
@@ -60761,9 +60785,12 @@
         <v>1691</v>
       </c>
       <c r="B1679">
-        <v>2</v>
-      </c>
-      <c r="G1679">
+        <v>1</v>
+      </c>
+      <c r="I1679">
+        <v>1</v>
+      </c>
+      <c r="L1679">
         <v>1</v>
       </c>
       <c r="N1679">
@@ -60775,10 +60802,10 @@
         <v>1692</v>
       </c>
       <c r="B1680">
-        <v>1</v>
-      </c>
-      <c r="H1680">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="G1680">
+        <v>1</v>
       </c>
       <c r="N1680">
         <v>3</v>
@@ -60791,11 +60818,8 @@
       <c r="B1681">
         <v>1</v>
       </c>
-      <c r="E1681">
-        <v>1</v>
-      </c>
       <c r="H1681">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1681">
         <v>3</v>
@@ -60808,10 +60832,10 @@
       <c r="B1682">
         <v>1</v>
       </c>
-      <c r="J1682">
-        <v>1</v>
-      </c>
-      <c r="L1682">
+      <c r="E1682">
+        <v>1</v>
+      </c>
+      <c r="H1682">
         <v>1</v>
       </c>
       <c r="N1682">
@@ -60825,10 +60849,10 @@
       <c r="B1683">
         <v>1</v>
       </c>
-      <c r="C1683">
-        <v>1</v>
-      </c>
-      <c r="F1683">
+      <c r="J1683">
+        <v>1</v>
+      </c>
+      <c r="L1683">
         <v>1</v>
       </c>
       <c r="N1683">
@@ -60842,7 +60866,7 @@
       <c r="B1684">
         <v>1</v>
       </c>
-      <c r="E1684">
+      <c r="C1684">
         <v>1</v>
       </c>
       <c r="F1684">
@@ -60859,10 +60883,10 @@
       <c r="B1685">
         <v>1</v>
       </c>
+      <c r="E1685">
+        <v>1</v>
+      </c>
       <c r="F1685">
-        <v>1</v>
-      </c>
-      <c r="K1685">
         <v>1</v>
       </c>
       <c r="N1685">
@@ -60877,7 +60901,10 @@
         <v>1</v>
       </c>
       <c r="F1686">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K1686">
+        <v>1</v>
       </c>
       <c r="N1686">
         <v>3</v>
@@ -60890,11 +60917,8 @@
       <c r="B1687">
         <v>1</v>
       </c>
-      <c r="C1687">
-        <v>1</v>
-      </c>
-      <c r="E1687">
-        <v>1</v>
+      <c r="F1687">
+        <v>2</v>
       </c>
       <c r="N1687">
         <v>3</v>
@@ -60910,7 +60934,7 @@
       <c r="C1688">
         <v>1</v>
       </c>
-      <c r="D1688">
+      <c r="E1688">
         <v>1</v>
       </c>
       <c r="N1688">
@@ -60922,7 +60946,10 @@
         <v>1701</v>
       </c>
       <c r="B1689">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C1689">
+        <v>1</v>
       </c>
       <c r="D1689">
         <v>1</v>
@@ -60936,10 +60963,10 @@
         <v>1702</v>
       </c>
       <c r="B1690">
-        <v>1</v>
-      </c>
-      <c r="C1690">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D1690">
+        <v>1</v>
       </c>
       <c r="N1690">
         <v>3</v>
@@ -60950,7 +60977,10 @@
         <v>1703</v>
       </c>
       <c r="B1691">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C1691">
+        <v>2</v>
       </c>
       <c r="N1691">
         <v>3</v>
@@ -60961,10 +60991,7 @@
         <v>1704</v>
       </c>
       <c r="B1692">
-        <v>1</v>
-      </c>
-      <c r="K1692">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N1692">
         <v>3</v>
@@ -60977,11 +61004,8 @@
       <c r="B1693">
         <v>1</v>
       </c>
-      <c r="D1693">
-        <v>1</v>
-      </c>
-      <c r="I1693">
-        <v>1</v>
+      <c r="K1693">
+        <v>2</v>
       </c>
       <c r="N1693">
         <v>3</v>
@@ -60994,7 +61018,7 @@
       <c r="B1694">
         <v>1</v>
       </c>
-      <c r="F1694">
+      <c r="D1694">
         <v>1</v>
       </c>
       <c r="I1694">
@@ -61009,9 +61033,12 @@
         <v>1707</v>
       </c>
       <c r="B1695">
-        <v>2</v>
-      </c>
-      <c r="M1695">
+        <v>1</v>
+      </c>
+      <c r="F1695">
+        <v>1</v>
+      </c>
+      <c r="I1695">
         <v>1</v>
       </c>
       <c r="N1695">
@@ -61022,13 +61049,10 @@
       <c r="A1696" t="s">
         <v>1708</v>
       </c>
-      <c r="C1696">
-        <v>1</v>
-      </c>
-      <c r="F1696">
-        <v>1</v>
-      </c>
-      <c r="G1696">
+      <c r="B1696">
+        <v>2</v>
+      </c>
+      <c r="M1696">
         <v>1</v>
       </c>
       <c r="N1696">
@@ -61042,10 +61066,10 @@
       <c r="C1697">
         <v>1</v>
       </c>
-      <c r="D1697">
-        <v>1</v>
-      </c>
-      <c r="K1697">
+      <c r="F1697">
+        <v>1</v>
+      </c>
+      <c r="G1697">
         <v>1</v>
       </c>
       <c r="N1697">
@@ -61059,10 +61083,10 @@
       <c r="C1698">
         <v>1</v>
       </c>
-      <c r="F1698">
-        <v>1</v>
-      </c>
-      <c r="J1698">
+      <c r="D1698">
+        <v>1</v>
+      </c>
+      <c r="K1698">
         <v>1</v>
       </c>
       <c r="N1698">
@@ -61076,10 +61100,10 @@
       <c r="C1699">
         <v>1</v>
       </c>
-      <c r="E1699">
-        <v>1</v>
-      </c>
-      <c r="K1699">
+      <c r="F1699">
+        <v>1</v>
+      </c>
+      <c r="J1699">
         <v>1</v>
       </c>
       <c r="N1699">
@@ -61093,10 +61117,10 @@
       <c r="C1700">
         <v>1</v>
       </c>
-      <c r="G1700">
-        <v>1</v>
-      </c>
-      <c r="I1700">
+      <c r="E1700">
+        <v>1</v>
+      </c>
+      <c r="K1700">
         <v>1</v>
       </c>
       <c r="N1700">
@@ -61108,9 +61132,12 @@
         <v>1713</v>
       </c>
       <c r="C1701">
-        <v>2</v>
-      </c>
-      <c r="F1701">
+        <v>1</v>
+      </c>
+      <c r="G1701">
+        <v>1</v>
+      </c>
+      <c r="I1701">
         <v>1</v>
       </c>
       <c r="N1701">
@@ -61122,12 +61149,9 @@
         <v>1714</v>
       </c>
       <c r="C1702">
-        <v>1</v>
-      </c>
-      <c r="K1702">
-        <v>1</v>
-      </c>
-      <c r="L1702">
+        <v>2</v>
+      </c>
+      <c r="F1702">
         <v>1</v>
       </c>
       <c r="N1702">
@@ -61141,10 +61165,10 @@
       <c r="C1703">
         <v>1</v>
       </c>
-      <c r="D1703">
-        <v>1</v>
-      </c>
-      <c r="I1703">
+      <c r="K1703">
+        <v>1</v>
+      </c>
+      <c r="L1703">
         <v>1</v>
       </c>
       <c r="N1703">
@@ -61158,10 +61182,10 @@
       <c r="C1704">
         <v>1</v>
       </c>
-      <c r="F1704">
-        <v>1</v>
-      </c>
-      <c r="K1704">
+      <c r="D1704">
+        <v>1</v>
+      </c>
+      <c r="I1704">
         <v>1</v>
       </c>
       <c r="N1704">
@@ -61175,8 +61199,11 @@
       <c r="C1705">
         <v>1</v>
       </c>
+      <c r="F1705">
+        <v>1</v>
+      </c>
       <c r="K1705">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1705">
         <v>3</v>
@@ -61189,11 +61216,8 @@
       <c r="C1706">
         <v>1</v>
       </c>
-      <c r="E1706">
-        <v>1</v>
-      </c>
-      <c r="F1706">
-        <v>1</v>
+      <c r="K1706">
+        <v>2</v>
       </c>
       <c r="N1706">
         <v>3</v>
@@ -61206,10 +61230,10 @@
       <c r="C1707">
         <v>1</v>
       </c>
-      <c r="H1707">
-        <v>1</v>
-      </c>
-      <c r="I1707">
+      <c r="E1707">
+        <v>1</v>
+      </c>
+      <c r="F1707">
         <v>1</v>
       </c>
       <c r="N1707">
@@ -61221,9 +61245,12 @@
         <v>1720</v>
       </c>
       <c r="C1708">
-        <v>2</v>
-      </c>
-      <c r="J1708">
+        <v>1</v>
+      </c>
+      <c r="H1708">
+        <v>1</v>
+      </c>
+      <c r="I1708">
         <v>1</v>
       </c>
       <c r="N1708">
@@ -61237,7 +61264,7 @@
       <c r="C1709">
         <v>2</v>
       </c>
-      <c r="E1709">
+      <c r="J1709">
         <v>1</v>
       </c>
       <c r="N1709">
@@ -61249,10 +61276,10 @@
         <v>1722</v>
       </c>
       <c r="C1710">
-        <v>1</v>
-      </c>
-      <c r="F1710">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E1710">
+        <v>1</v>
       </c>
       <c r="N1710">
         <v>3</v>
@@ -61263,10 +61290,10 @@
         <v>1723</v>
       </c>
       <c r="C1711">
-        <v>2</v>
-      </c>
-      <c r="J1711">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F1711">
+        <v>2</v>
       </c>
       <c r="N1711">
         <v>3</v>
@@ -61277,10 +61304,10 @@
         <v>1724</v>
       </c>
       <c r="C1712">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1712">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1712">
         <v>3</v>
@@ -61293,7 +61320,7 @@
       <c r="C1713">
         <v>1</v>
       </c>
-      <c r="H1713">
+      <c r="J1713">
         <v>2</v>
       </c>
       <c r="N1713">
@@ -61307,11 +61334,8 @@
       <c r="C1714">
         <v>1</v>
       </c>
-      <c r="D1714">
-        <v>1</v>
-      </c>
-      <c r="J1714">
-        <v>1</v>
+      <c r="H1714">
+        <v>2</v>
       </c>
       <c r="N1714">
         <v>3</v>
@@ -61325,7 +61349,10 @@
         <v>1</v>
       </c>
       <c r="D1715">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J1715">
+        <v>1</v>
       </c>
       <c r="N1715">
         <v>3</v>
@@ -61338,11 +61365,8 @@
       <c r="C1716">
         <v>1</v>
       </c>
-      <c r="G1716">
-        <v>1</v>
-      </c>
-      <c r="I1716">
-        <v>1</v>
+      <c r="D1716">
+        <v>2</v>
       </c>
       <c r="N1716">
         <v>3</v>
@@ -61355,8 +61379,11 @@
       <c r="C1717">
         <v>1</v>
       </c>
-      <c r="H1717">
-        <v>2</v>
+      <c r="G1717">
+        <v>1</v>
+      </c>
+      <c r="I1717">
+        <v>1</v>
       </c>
       <c r="N1717">
         <v>3</v>
@@ -61369,11 +61396,8 @@
       <c r="C1718">
         <v>1</v>
       </c>
-      <c r="G1718">
-        <v>1</v>
-      </c>
-      <c r="J1718">
-        <v>1</v>
+      <c r="H1718">
+        <v>2</v>
       </c>
       <c r="N1718">
         <v>3</v>
@@ -61384,9 +61408,12 @@
         <v>1731</v>
       </c>
       <c r="C1719">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1719">
+        <v>1</v>
+      </c>
+      <c r="J1719">
         <v>1</v>
       </c>
       <c r="N1719">
@@ -61398,12 +61425,9 @@
         <v>1732</v>
       </c>
       <c r="C1720">
-        <v>1</v>
-      </c>
-      <c r="H1720">
-        <v>1</v>
-      </c>
-      <c r="I1720">
+        <v>2</v>
+      </c>
+      <c r="G1720">
         <v>1</v>
       </c>
       <c r="N1720">
@@ -61417,8 +61441,11 @@
       <c r="C1721">
         <v>1</v>
       </c>
+      <c r="H1721">
+        <v>1</v>
+      </c>
       <c r="I1721">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1721">
         <v>3</v>
@@ -61429,10 +61456,10 @@
         <v>1734</v>
       </c>
       <c r="C1722">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1722">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1722">
         <v>3</v>
@@ -61443,12 +61470,9 @@
         <v>1735</v>
       </c>
       <c r="C1723">
-        <v>1</v>
-      </c>
-      <c r="D1723">
-        <v>1</v>
-      </c>
-      <c r="E1723">
+        <v>2</v>
+      </c>
+      <c r="I1723">
         <v>1</v>
       </c>
       <c r="N1723">
@@ -61460,7 +61484,13 @@
         <v>1736</v>
       </c>
       <c r="C1724">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D1724">
+        <v>1</v>
+      </c>
+      <c r="E1724">
+        <v>1</v>
       </c>
       <c r="N1724">
         <v>3</v>
@@ -61471,13 +61501,7 @@
         <v>1737</v>
       </c>
       <c r="C1725">
-        <v>1</v>
-      </c>
-      <c r="E1725">
-        <v>1</v>
-      </c>
-      <c r="H1725">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1725">
         <v>3</v>
@@ -61490,10 +61514,10 @@
       <c r="C1726">
         <v>1</v>
       </c>
-      <c r="G1726">
-        <v>1</v>
-      </c>
-      <c r="J1726">
+      <c r="E1726">
+        <v>1</v>
+      </c>
+      <c r="H1726">
         <v>1</v>
       </c>
       <c r="N1726">
@@ -61507,8 +61531,11 @@
       <c r="C1727">
         <v>1</v>
       </c>
+      <c r="G1727">
+        <v>1</v>
+      </c>
       <c r="J1727">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1727">
         <v>3</v>
@@ -61521,7 +61548,7 @@
       <c r="C1728">
         <v>1</v>
       </c>
-      <c r="D1728">
+      <c r="J1728">
         <v>2</v>
       </c>
       <c r="N1728">
@@ -61533,10 +61560,10 @@
         <v>1741</v>
       </c>
       <c r="C1729">
-        <v>2</v>
-      </c>
-      <c r="H1729">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D1729">
+        <v>2</v>
       </c>
       <c r="N1729">
         <v>3</v>
@@ -61547,10 +61574,10 @@
         <v>1742</v>
       </c>
       <c r="C1730">
-        <v>1</v>
-      </c>
-      <c r="J1730">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H1730">
+        <v>1</v>
       </c>
       <c r="N1730">
         <v>3</v>
@@ -61563,7 +61590,7 @@
       <c r="C1731">
         <v>1</v>
       </c>
-      <c r="I1731">
+      <c r="J1731">
         <v>2</v>
       </c>
       <c r="N1731">
@@ -61575,10 +61602,10 @@
         <v>1744</v>
       </c>
       <c r="C1732">
-        <v>2</v>
-      </c>
-      <c r="F1732">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I1732">
+        <v>2</v>
       </c>
       <c r="N1732">
         <v>3</v>
@@ -61589,12 +61616,9 @@
         <v>1745</v>
       </c>
       <c r="C1733">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1733">
-        <v>1</v>
-      </c>
-      <c r="J1733">
         <v>1</v>
       </c>
       <c r="N1733">
@@ -61606,9 +61630,12 @@
         <v>1746</v>
       </c>
       <c r="C1734">
-        <v>2</v>
-      </c>
-      <c r="G1734">
+        <v>1</v>
+      </c>
+      <c r="F1734">
+        <v>1</v>
+      </c>
+      <c r="J1734">
         <v>1</v>
       </c>
       <c r="N1734">
@@ -61620,12 +61647,9 @@
         <v>1747</v>
       </c>
       <c r="C1735">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1735">
-        <v>1</v>
-      </c>
-      <c r="K1735">
         <v>1</v>
       </c>
       <c r="N1735">
@@ -61639,8 +61663,11 @@
       <c r="C1736">
         <v>1</v>
       </c>
-      <c r="H1736">
-        <v>2</v>
+      <c r="G1736">
+        <v>1</v>
+      </c>
+      <c r="K1736">
+        <v>1</v>
       </c>
       <c r="N1736">
         <v>3</v>
@@ -61653,11 +61680,8 @@
       <c r="C1737">
         <v>1</v>
       </c>
-      <c r="F1737">
-        <v>1</v>
-      </c>
-      <c r="K1737">
-        <v>1</v>
+      <c r="H1737">
+        <v>2</v>
       </c>
       <c r="N1737">
         <v>3</v>
@@ -61670,10 +61694,10 @@
       <c r="C1738">
         <v>1</v>
       </c>
-      <c r="D1738">
-        <v>1</v>
-      </c>
-      <c r="J1738">
+      <c r="F1738">
+        <v>1</v>
+      </c>
+      <c r="K1738">
         <v>1</v>
       </c>
       <c r="N1738">
@@ -61687,8 +61711,11 @@
       <c r="C1739">
         <v>1</v>
       </c>
-      <c r="E1739">
-        <v>2</v>
+      <c r="D1739">
+        <v>1</v>
+      </c>
+      <c r="J1739">
+        <v>1</v>
       </c>
       <c r="N1739">
         <v>3</v>
@@ -61701,11 +61728,8 @@
       <c r="C1740">
         <v>1</v>
       </c>
-      <c r="H1740">
-        <v>1</v>
-      </c>
-      <c r="I1740">
-        <v>1</v>
+      <c r="E1740">
+        <v>2</v>
       </c>
       <c r="N1740">
         <v>3</v>
@@ -61718,8 +61742,11 @@
       <c r="C1741">
         <v>1</v>
       </c>
-      <c r="L1741">
-        <v>2</v>
+      <c r="H1741">
+        <v>1</v>
+      </c>
+      <c r="I1741">
+        <v>1</v>
       </c>
       <c r="N1741">
         <v>3</v>
@@ -61732,11 +61759,8 @@
       <c r="C1742">
         <v>1</v>
       </c>
-      <c r="E1742">
-        <v>1</v>
-      </c>
       <c r="L1742">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1742">
         <v>3</v>
@@ -61749,8 +61773,11 @@
       <c r="C1743">
         <v>1</v>
       </c>
-      <c r="D1743">
-        <v>2</v>
+      <c r="E1743">
+        <v>1</v>
+      </c>
+      <c r="L1743">
+        <v>1</v>
       </c>
       <c r="N1743">
         <v>3</v>
@@ -61764,10 +61791,7 @@
         <v>1</v>
       </c>
       <c r="D1744">
-        <v>1</v>
-      </c>
-      <c r="I1744">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1744">
         <v>3</v>
@@ -61780,10 +61804,10 @@
       <c r="C1745">
         <v>1</v>
       </c>
-      <c r="L1745">
-        <v>1</v>
-      </c>
-      <c r="M1745">
+      <c r="D1745">
+        <v>1</v>
+      </c>
+      <c r="I1745">
         <v>1</v>
       </c>
       <c r="N1745">
@@ -61797,10 +61821,10 @@
       <c r="C1746">
         <v>1</v>
       </c>
-      <c r="H1746">
-        <v>1</v>
-      </c>
-      <c r="J1746">
+      <c r="L1746">
+        <v>1</v>
+      </c>
+      <c r="M1746">
         <v>1</v>
       </c>
       <c r="N1746">
@@ -61814,10 +61838,10 @@
       <c r="C1747">
         <v>1</v>
       </c>
-      <c r="I1747">
-        <v>1</v>
-      </c>
-      <c r="K1747">
+      <c r="H1747">
+        <v>1</v>
+      </c>
+      <c r="J1747">
         <v>1</v>
       </c>
       <c r="N1747">
@@ -61831,8 +61855,11 @@
       <c r="C1748">
         <v>1</v>
       </c>
+      <c r="I1748">
+        <v>1</v>
+      </c>
       <c r="K1748">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1748">
         <v>3</v>
@@ -61845,11 +61872,8 @@
       <c r="C1749">
         <v>1</v>
       </c>
-      <c r="F1749">
-        <v>1</v>
-      </c>
-      <c r="L1749">
-        <v>1</v>
+      <c r="K1749">
+        <v>2</v>
       </c>
       <c r="N1749">
         <v>3</v>
@@ -61862,7 +61886,7 @@
       <c r="C1750">
         <v>1</v>
       </c>
-      <c r="J1750">
+      <c r="F1750">
         <v>1</v>
       </c>
       <c r="L1750">
@@ -61879,10 +61903,10 @@
       <c r="C1751">
         <v>1</v>
       </c>
-      <c r="D1751">
-        <v>1</v>
-      </c>
-      <c r="H1751">
+      <c r="J1751">
+        <v>1</v>
+      </c>
+      <c r="L1751">
         <v>1</v>
       </c>
       <c r="N1751">
@@ -61896,10 +61920,10 @@
       <c r="C1752">
         <v>1</v>
       </c>
-      <c r="E1752">
-        <v>1</v>
-      </c>
-      <c r="J1752">
+      <c r="D1752">
+        <v>1</v>
+      </c>
+      <c r="H1752">
         <v>1</v>
       </c>
       <c r="N1752">
@@ -61913,8 +61937,11 @@
       <c r="C1753">
         <v>1</v>
       </c>
-      <c r="L1753">
-        <v>2</v>
+      <c r="E1753">
+        <v>1</v>
+      </c>
+      <c r="J1753">
+        <v>1</v>
       </c>
       <c r="N1753">
         <v>3</v>
@@ -61927,7 +61954,7 @@
       <c r="C1754">
         <v>1</v>
       </c>
-      <c r="I1754">
+      <c r="L1754">
         <v>2</v>
       </c>
       <c r="N1754">
@@ -61941,11 +61968,8 @@
       <c r="C1755">
         <v>1</v>
       </c>
-      <c r="F1755">
-        <v>1</v>
-      </c>
       <c r="I1755">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1755">
         <v>3</v>
@@ -61958,10 +61982,10 @@
       <c r="C1756">
         <v>1</v>
       </c>
-      <c r="H1756">
-        <v>1</v>
-      </c>
-      <c r="M1756">
+      <c r="F1756">
+        <v>1</v>
+      </c>
+      <c r="I1756">
         <v>1</v>
       </c>
       <c r="N1756">
@@ -61975,10 +61999,10 @@
       <c r="C1757">
         <v>1</v>
       </c>
-      <c r="D1757">
-        <v>1</v>
-      </c>
-      <c r="E1757">
+      <c r="H1757">
+        <v>1</v>
+      </c>
+      <c r="M1757">
         <v>1</v>
       </c>
       <c r="N1757">
@@ -61992,8 +62016,11 @@
       <c r="C1758">
         <v>1</v>
       </c>
-      <c r="H1758">
-        <v>2</v>
+      <c r="D1758">
+        <v>1</v>
+      </c>
+      <c r="E1758">
+        <v>1</v>
       </c>
       <c r="N1758">
         <v>3</v>
@@ -62007,10 +62034,7 @@
         <v>1</v>
       </c>
       <c r="H1759">
-        <v>1</v>
-      </c>
-      <c r="M1759">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1759">
         <v>3</v>
@@ -62023,10 +62047,10 @@
       <c r="C1760">
         <v>1</v>
       </c>
-      <c r="F1760">
-        <v>1</v>
-      </c>
-      <c r="J1760">
+      <c r="H1760">
+        <v>1</v>
+      </c>
+      <c r="M1760">
         <v>1</v>
       </c>
       <c r="N1760">
@@ -62038,7 +62062,13 @@
         <v>1773</v>
       </c>
       <c r="C1761">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F1761">
+        <v>1</v>
+      </c>
+      <c r="J1761">
+        <v>1</v>
       </c>
       <c r="N1761">
         <v>3</v>
@@ -62049,13 +62079,7 @@
         <v>1774</v>
       </c>
       <c r="C1762">
-        <v>1</v>
-      </c>
-      <c r="H1762">
-        <v>1</v>
-      </c>
-      <c r="L1762">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1762">
         <v>3</v>
@@ -62068,10 +62092,10 @@
       <c r="C1763">
         <v>1</v>
       </c>
-      <c r="D1763">
-        <v>1</v>
-      </c>
-      <c r="G1763">
+      <c r="H1763">
+        <v>1</v>
+      </c>
+      <c r="L1763">
         <v>1</v>
       </c>
       <c r="N1763">
@@ -62088,7 +62112,7 @@
       <c r="D1764">
         <v>1</v>
       </c>
-      <c r="E1764">
+      <c r="G1764">
         <v>1</v>
       </c>
       <c r="N1764">
@@ -62102,10 +62126,10 @@
       <c r="C1765">
         <v>1</v>
       </c>
-      <c r="K1765">
-        <v>1</v>
-      </c>
-      <c r="L1765">
+      <c r="D1765">
+        <v>1</v>
+      </c>
+      <c r="E1765">
         <v>1</v>
       </c>
       <c r="N1765">
@@ -62119,8 +62143,11 @@
       <c r="C1766">
         <v>1</v>
       </c>
-      <c r="I1766">
-        <v>2</v>
+      <c r="K1766">
+        <v>1</v>
+      </c>
+      <c r="L1766">
+        <v>1</v>
       </c>
       <c r="N1766">
         <v>3</v>
@@ -62131,7 +62158,10 @@
         <v>1779</v>
       </c>
       <c r="C1767">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I1767">
+        <v>2</v>
       </c>
       <c r="N1767">
         <v>3</v>
@@ -62142,13 +62172,7 @@
         <v>1780</v>
       </c>
       <c r="C1768">
-        <v>1</v>
-      </c>
-      <c r="D1768">
-        <v>1</v>
-      </c>
-      <c r="J1768">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1768">
         <v>3</v>
@@ -62161,7 +62185,7 @@
       <c r="C1769">
         <v>1</v>
       </c>
-      <c r="F1769">
+      <c r="D1769">
         <v>1</v>
       </c>
       <c r="J1769">
@@ -62178,10 +62202,10 @@
       <c r="C1770">
         <v>1</v>
       </c>
-      <c r="D1770">
-        <v>1</v>
-      </c>
-      <c r="H1770">
+      <c r="F1770">
+        <v>1</v>
+      </c>
+      <c r="J1770">
         <v>1</v>
       </c>
       <c r="N1770">
@@ -62195,10 +62219,10 @@
       <c r="C1771">
         <v>1</v>
       </c>
-      <c r="E1771">
-        <v>1</v>
-      </c>
-      <c r="L1771">
+      <c r="D1771">
+        <v>1</v>
+      </c>
+      <c r="H1771">
         <v>1</v>
       </c>
       <c r="N1771">
@@ -62212,10 +62236,10 @@
       <c r="C1772">
         <v>1</v>
       </c>
-      <c r="D1772">
-        <v>1</v>
-      </c>
-      <c r="J1772">
+      <c r="E1772">
+        <v>1</v>
+      </c>
+      <c r="L1772">
         <v>1</v>
       </c>
       <c r="N1772">
@@ -62229,10 +62253,10 @@
       <c r="C1773">
         <v>1</v>
       </c>
-      <c r="F1773">
-        <v>1</v>
-      </c>
-      <c r="K1773">
+      <c r="D1773">
+        <v>1</v>
+      </c>
+      <c r="J1773">
         <v>1</v>
       </c>
       <c r="N1773">
@@ -62246,10 +62270,10 @@
       <c r="C1774">
         <v>1</v>
       </c>
-      <c r="D1774">
-        <v>1</v>
-      </c>
-      <c r="J1774">
+      <c r="F1774">
+        <v>1</v>
+      </c>
+      <c r="K1774">
         <v>1</v>
       </c>
       <c r="N1774">
@@ -62263,8 +62287,11 @@
       <c r="C1775">
         <v>1</v>
       </c>
-      <c r="I1775">
-        <v>2</v>
+      <c r="D1775">
+        <v>1</v>
+      </c>
+      <c r="J1775">
+        <v>1</v>
       </c>
       <c r="N1775">
         <v>3</v>
@@ -62277,7 +62304,7 @@
       <c r="C1776">
         <v>1</v>
       </c>
-      <c r="F1776">
+      <c r="I1776">
         <v>2</v>
       </c>
       <c r="N1776">
@@ -62291,11 +62318,8 @@
       <c r="C1777">
         <v>1</v>
       </c>
-      <c r="E1777">
-        <v>1</v>
-      </c>
       <c r="F1777">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1777">
         <v>3</v>
@@ -62306,9 +62330,12 @@
         <v>1790</v>
       </c>
       <c r="C1778">
-        <v>2</v>
-      </c>
-      <c r="L1778">
+        <v>1</v>
+      </c>
+      <c r="E1778">
+        <v>1</v>
+      </c>
+      <c r="F1778">
         <v>1</v>
       </c>
       <c r="N1778">
@@ -62322,7 +62349,7 @@
       <c r="C1779">
         <v>2</v>
       </c>
-      <c r="K1779">
+      <c r="L1779">
         <v>1</v>
       </c>
       <c r="N1779">
@@ -62334,10 +62361,7 @@
         <v>1792</v>
       </c>
       <c r="C1780">
-        <v>1</v>
-      </c>
-      <c r="I1780">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1780">
         <v>1</v>
@@ -62350,13 +62374,13 @@
       <c r="A1781" t="s">
         <v>1793</v>
       </c>
-      <c r="D1781">
-        <v>1</v>
-      </c>
-      <c r="E1781">
-        <v>1</v>
-      </c>
-      <c r="G1781">
+      <c r="C1781">
+        <v>1</v>
+      </c>
+      <c r="I1781">
+        <v>1</v>
+      </c>
+      <c r="K1781">
         <v>1</v>
       </c>
       <c r="N1781">
@@ -62370,8 +62394,11 @@
       <c r="D1782">
         <v>1</v>
       </c>
+      <c r="E1782">
+        <v>1</v>
+      </c>
       <c r="G1782">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1782">
         <v>3</v>
@@ -62382,10 +62409,10 @@
         <v>1795</v>
       </c>
       <c r="D1783">
-        <v>2</v>
-      </c>
-      <c r="K1783">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G1783">
+        <v>2</v>
       </c>
       <c r="N1783">
         <v>3</v>
@@ -62396,12 +62423,9 @@
         <v>1796</v>
       </c>
       <c r="D1784">
-        <v>1</v>
-      </c>
-      <c r="E1784">
-        <v>1</v>
-      </c>
-      <c r="H1784">
+        <v>2</v>
+      </c>
+      <c r="K1784">
         <v>1</v>
       </c>
       <c r="N1784">
@@ -62413,9 +62437,12 @@
         <v>1797</v>
       </c>
       <c r="D1785">
-        <v>2</v>
-      </c>
-      <c r="G1785">
+        <v>1</v>
+      </c>
+      <c r="E1785">
+        <v>1</v>
+      </c>
+      <c r="H1785">
         <v>1</v>
       </c>
       <c r="N1785">
@@ -62427,12 +62454,9 @@
         <v>1798</v>
       </c>
       <c r="D1786">
-        <v>1</v>
-      </c>
-      <c r="E1786">
-        <v>1</v>
-      </c>
-      <c r="F1786">
+        <v>2</v>
+      </c>
+      <c r="G1786">
         <v>1</v>
       </c>
       <c r="N1786">
@@ -62449,7 +62473,7 @@
       <c r="E1787">
         <v>1</v>
       </c>
-      <c r="J1787">
+      <c r="F1787">
         <v>1</v>
       </c>
       <c r="N1787">
@@ -62461,9 +62485,12 @@
         <v>1800</v>
       </c>
       <c r="D1788">
-        <v>2</v>
-      </c>
-      <c r="F1788">
+        <v>1</v>
+      </c>
+      <c r="E1788">
+        <v>1</v>
+      </c>
+      <c r="J1788">
         <v>1</v>
       </c>
       <c r="N1788">
@@ -62475,7 +62502,10 @@
         <v>1801</v>
       </c>
       <c r="D1789">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F1789">
+        <v>1</v>
       </c>
       <c r="N1789">
         <v>3</v>
@@ -62486,13 +62516,7 @@
         <v>1802</v>
       </c>
       <c r="D1790">
-        <v>1</v>
-      </c>
-      <c r="E1790">
-        <v>1</v>
-      </c>
-      <c r="I1790">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1790">
         <v>3</v>
@@ -62505,10 +62529,10 @@
       <c r="D1791">
         <v>1</v>
       </c>
-      <c r="G1791">
-        <v>1</v>
-      </c>
-      <c r="H1791">
+      <c r="E1791">
+        <v>1</v>
+      </c>
+      <c r="I1791">
         <v>1</v>
       </c>
       <c r="N1791">
@@ -62522,10 +62546,10 @@
       <c r="D1792">
         <v>1</v>
       </c>
-      <c r="E1792">
-        <v>1</v>
-      </c>
-      <c r="J1792">
+      <c r="G1792">
+        <v>1</v>
+      </c>
+      <c r="H1792">
         <v>1</v>
       </c>
       <c r="N1792">
@@ -62539,10 +62563,10 @@
       <c r="D1793">
         <v>1</v>
       </c>
-      <c r="F1793">
-        <v>1</v>
-      </c>
-      <c r="I1793">
+      <c r="E1793">
+        <v>1</v>
+      </c>
+      <c r="J1793">
         <v>1</v>
       </c>
       <c r="N1793">
@@ -62556,7 +62580,7 @@
       <c r="D1794">
         <v>1</v>
       </c>
-      <c r="G1794">
+      <c r="F1794">
         <v>1</v>
       </c>
       <c r="I1794">
@@ -62576,7 +62600,7 @@
       <c r="G1795">
         <v>1</v>
       </c>
-      <c r="K1795">
+      <c r="I1795">
         <v>1</v>
       </c>
       <c r="N1795">
@@ -62590,10 +62614,10 @@
       <c r="D1796">
         <v>1</v>
       </c>
+      <c r="G1796">
+        <v>1</v>
+      </c>
       <c r="K1796">
-        <v>1</v>
-      </c>
-      <c r="L1796">
         <v>1</v>
       </c>
       <c r="N1796">
@@ -62607,10 +62631,10 @@
       <c r="D1797">
         <v>1</v>
       </c>
-      <c r="E1797">
-        <v>1</v>
-      </c>
-      <c r="J1797">
+      <c r="K1797">
+        <v>1</v>
+      </c>
+      <c r="L1797">
         <v>1</v>
       </c>
       <c r="N1797">
@@ -62624,8 +62648,11 @@
       <c r="D1798">
         <v>1</v>
       </c>
-      <c r="H1798">
-        <v>2</v>
+      <c r="E1798">
+        <v>1</v>
+      </c>
+      <c r="J1798">
+        <v>1</v>
       </c>
       <c r="N1798">
         <v>3</v>
@@ -62636,10 +62663,10 @@
         <v>1811</v>
       </c>
       <c r="D1799">
-        <v>2</v>
-      </c>
-      <c r="J1799">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H1799">
+        <v>2</v>
       </c>
       <c r="N1799">
         <v>3</v>
@@ -62650,10 +62677,10 @@
         <v>1812</v>
       </c>
       <c r="D1800">
-        <v>1</v>
-      </c>
-      <c r="E1800">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J1800">
+        <v>1</v>
       </c>
       <c r="N1800">
         <v>3</v>
@@ -62667,10 +62694,7 @@
         <v>1</v>
       </c>
       <c r="E1801">
-        <v>1</v>
-      </c>
-      <c r="J1801">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1801">
         <v>3</v>
@@ -62681,9 +62705,12 @@
         <v>1814</v>
       </c>
       <c r="D1802">
-        <v>2</v>
-      </c>
-      <c r="G1802">
+        <v>1</v>
+      </c>
+      <c r="E1802">
+        <v>1</v>
+      </c>
+      <c r="J1802">
         <v>1</v>
       </c>
       <c r="N1802">
@@ -62697,7 +62724,7 @@
       <c r="D1803">
         <v>2</v>
       </c>
-      <c r="K1803">
+      <c r="G1803">
         <v>1</v>
       </c>
       <c r="N1803">
@@ -62709,12 +62736,9 @@
         <v>1816</v>
       </c>
       <c r="D1804">
-        <v>1</v>
-      </c>
-      <c r="F1804">
-        <v>1</v>
-      </c>
-      <c r="J1804">
+        <v>2</v>
+      </c>
+      <c r="K1804">
         <v>1</v>
       </c>
       <c r="N1804">
@@ -62726,7 +62750,13 @@
         <v>1817</v>
       </c>
       <c r="D1805">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F1805">
+        <v>1</v>
+      </c>
+      <c r="J1805">
+        <v>1</v>
       </c>
       <c r="N1805">
         <v>3</v>
@@ -62737,10 +62767,7 @@
         <v>1818</v>
       </c>
       <c r="D1806">
-        <v>2</v>
-      </c>
-      <c r="E1806">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1806">
         <v>3</v>
@@ -62753,7 +62780,7 @@
       <c r="D1807">
         <v>2</v>
       </c>
-      <c r="H1807">
+      <c r="E1807">
         <v>1</v>
       </c>
       <c r="N1807">
@@ -62765,10 +62792,10 @@
         <v>1820</v>
       </c>
       <c r="D1808">
-        <v>1</v>
-      </c>
-      <c r="K1808">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H1808">
+        <v>1</v>
       </c>
       <c r="N1808">
         <v>3</v>
@@ -62781,11 +62808,8 @@
       <c r="D1809">
         <v>1</v>
       </c>
-      <c r="E1809">
-        <v>1</v>
-      </c>
-      <c r="J1809">
-        <v>1</v>
+      <c r="K1809">
+        <v>2</v>
       </c>
       <c r="N1809">
         <v>3</v>
@@ -62801,7 +62825,7 @@
       <c r="E1810">
         <v>1</v>
       </c>
-      <c r="H1810">
+      <c r="J1810">
         <v>1</v>
       </c>
       <c r="N1810">
@@ -62813,9 +62837,12 @@
         <v>1823</v>
       </c>
       <c r="D1811">
-        <v>2</v>
-      </c>
-      <c r="G1811">
+        <v>1</v>
+      </c>
+      <c r="E1811">
+        <v>1</v>
+      </c>
+      <c r="H1811">
         <v>1</v>
       </c>
       <c r="N1811">
@@ -62827,12 +62854,9 @@
         <v>1824</v>
       </c>
       <c r="D1812">
-        <v>1</v>
-      </c>
-      <c r="E1812">
-        <v>1</v>
-      </c>
-      <c r="K1812">
+        <v>2</v>
+      </c>
+      <c r="G1812">
         <v>1</v>
       </c>
       <c r="N1812">
@@ -62864,7 +62888,10 @@
         <v>1</v>
       </c>
       <c r="E1814">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K1814">
+        <v>1</v>
       </c>
       <c r="N1814">
         <v>3</v>
@@ -62878,10 +62905,7 @@
         <v>1</v>
       </c>
       <c r="E1815">
-        <v>1</v>
-      </c>
-      <c r="J1815">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1815">
         <v>3</v>
@@ -62894,10 +62918,10 @@
       <c r="D1816">
         <v>1</v>
       </c>
-      <c r="H1816">
-        <v>1</v>
-      </c>
-      <c r="I1816">
+      <c r="E1816">
+        <v>1</v>
+      </c>
+      <c r="J1816">
         <v>1</v>
       </c>
       <c r="N1816">
@@ -62911,10 +62935,10 @@
       <c r="D1817">
         <v>1</v>
       </c>
-      <c r="E1817">
-        <v>1</v>
-      </c>
-      <c r="J1817">
+      <c r="H1817">
+        <v>1</v>
+      </c>
+      <c r="I1817">
         <v>1</v>
       </c>
       <c r="N1817">
@@ -62931,7 +62955,7 @@
       <c r="E1818">
         <v>1</v>
       </c>
-      <c r="I1818">
+      <c r="J1818">
         <v>1</v>
       </c>
       <c r="N1818">
@@ -62945,8 +62969,11 @@
       <c r="D1819">
         <v>1</v>
       </c>
-      <c r="J1819">
-        <v>2</v>
+      <c r="E1819">
+        <v>1</v>
+      </c>
+      <c r="I1819">
+        <v>1</v>
       </c>
       <c r="N1819">
         <v>3</v>
@@ -62959,11 +62986,8 @@
       <c r="D1820">
         <v>1</v>
       </c>
-      <c r="E1820">
-        <v>1</v>
-      </c>
-      <c r="G1820">
-        <v>1</v>
+      <c r="J1820">
+        <v>2</v>
       </c>
       <c r="N1820">
         <v>3</v>
@@ -62974,9 +62998,12 @@
         <v>1833</v>
       </c>
       <c r="D1821">
-        <v>2</v>
-      </c>
-      <c r="F1821">
+        <v>1</v>
+      </c>
+      <c r="E1821">
+        <v>1</v>
+      </c>
+      <c r="G1821">
         <v>1</v>
       </c>
       <c r="N1821">
@@ -62990,7 +63017,7 @@
       <c r="D1822">
         <v>2</v>
       </c>
-      <c r="I1822">
+      <c r="F1822">
         <v>1</v>
       </c>
       <c r="N1822">
@@ -63002,12 +63029,9 @@
         <v>1835</v>
       </c>
       <c r="D1823">
-        <v>1</v>
-      </c>
-      <c r="H1823">
-        <v>1</v>
-      </c>
-      <c r="J1823">
+        <v>2</v>
+      </c>
+      <c r="I1823">
         <v>1</v>
       </c>
       <c r="N1823">
@@ -63021,10 +63045,10 @@
       <c r="D1824">
         <v>1</v>
       </c>
-      <c r="E1824">
-        <v>1</v>
-      </c>
-      <c r="F1824">
+      <c r="H1824">
+        <v>1</v>
+      </c>
+      <c r="J1824">
         <v>1</v>
       </c>
       <c r="N1824">
@@ -63038,10 +63062,10 @@
       <c r="D1825">
         <v>1</v>
       </c>
-      <c r="H1825">
-        <v>1</v>
-      </c>
-      <c r="J1825">
+      <c r="E1825">
+        <v>1</v>
+      </c>
+      <c r="F1825">
         <v>1</v>
       </c>
       <c r="N1825">
@@ -63055,10 +63079,10 @@
       <c r="D1826">
         <v>1</v>
       </c>
-      <c r="E1826">
-        <v>1</v>
-      </c>
-      <c r="F1826">
+      <c r="H1826">
+        <v>1</v>
+      </c>
+      <c r="J1826">
         <v>1</v>
       </c>
       <c r="N1826">
@@ -63072,8 +63096,11 @@
       <c r="D1827">
         <v>1</v>
       </c>
-      <c r="I1827">
-        <v>2</v>
+      <c r="E1827">
+        <v>1</v>
+      </c>
+      <c r="F1827">
+        <v>1</v>
       </c>
       <c r="N1827">
         <v>3</v>
@@ -63086,11 +63113,8 @@
       <c r="D1828">
         <v>1</v>
       </c>
-      <c r="F1828">
-        <v>1</v>
-      </c>
-      <c r="J1828">
-        <v>1</v>
+      <c r="I1828">
+        <v>2</v>
       </c>
       <c r="N1828">
         <v>3</v>
@@ -63106,7 +63130,7 @@
       <c r="F1829">
         <v>1</v>
       </c>
-      <c r="L1829">
+      <c r="J1829">
         <v>1</v>
       </c>
       <c r="N1829">
@@ -63123,7 +63147,7 @@
       <c r="F1830">
         <v>1</v>
       </c>
-      <c r="M1830">
+      <c r="L1830">
         <v>1</v>
       </c>
       <c r="N1830">
@@ -63140,7 +63164,7 @@
       <c r="F1831">
         <v>1</v>
       </c>
-      <c r="G1831">
+      <c r="M1831">
         <v>1</v>
       </c>
       <c r="N1831">
@@ -63154,8 +63178,11 @@
       <c r="D1832">
         <v>1</v>
       </c>
-      <c r="J1832">
-        <v>2</v>
+      <c r="F1832">
+        <v>1</v>
+      </c>
+      <c r="G1832">
+        <v>1</v>
       </c>
       <c r="N1832">
         <v>3</v>
@@ -63166,10 +63193,10 @@
         <v>1845</v>
       </c>
       <c r="D1833">
-        <v>2</v>
-      </c>
-      <c r="F1833">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J1833">
+        <v>2</v>
       </c>
       <c r="N1833">
         <v>3</v>
@@ -63180,10 +63207,7 @@
         <v>1846</v>
       </c>
       <c r="D1834">
-        <v>1</v>
-      </c>
-      <c r="E1834">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1834">
         <v>1</v>
@@ -63197,9 +63221,12 @@
         <v>1847</v>
       </c>
       <c r="D1835">
-        <v>2</v>
-      </c>
-      <c r="L1835">
+        <v>1</v>
+      </c>
+      <c r="E1835">
+        <v>1</v>
+      </c>
+      <c r="F1835">
         <v>1</v>
       </c>
       <c r="N1835">
@@ -63213,7 +63240,7 @@
       <c r="D1836">
         <v>2</v>
       </c>
-      <c r="H1836">
+      <c r="L1836">
         <v>1</v>
       </c>
       <c r="N1836">
@@ -63225,10 +63252,7 @@
         <v>1849</v>
       </c>
       <c r="D1837">
-        <v>1</v>
-      </c>
-      <c r="F1837">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1837">
         <v>1</v>
@@ -63244,10 +63268,10 @@
       <c r="D1838">
         <v>1</v>
       </c>
+      <c r="F1838">
+        <v>1</v>
+      </c>
       <c r="H1838">
-        <v>1</v>
-      </c>
-      <c r="K1838">
         <v>1</v>
       </c>
       <c r="N1838">
@@ -63261,10 +63285,10 @@
       <c r="D1839">
         <v>1</v>
       </c>
-      <c r="F1839">
-        <v>1</v>
-      </c>
-      <c r="L1839">
+      <c r="H1839">
+        <v>1</v>
+      </c>
+      <c r="K1839">
         <v>1</v>
       </c>
       <c r="N1839">
@@ -63278,8 +63302,11 @@
       <c r="D1840">
         <v>1</v>
       </c>
-      <c r="G1840">
-        <v>2</v>
+      <c r="F1840">
+        <v>1</v>
+      </c>
+      <c r="L1840">
+        <v>1</v>
       </c>
       <c r="N1840">
         <v>3</v>
@@ -63292,11 +63319,8 @@
       <c r="D1841">
         <v>1</v>
       </c>
-      <c r="E1841">
-        <v>1</v>
-      </c>
-      <c r="F1841">
-        <v>1</v>
+      <c r="G1841">
+        <v>2</v>
       </c>
       <c r="N1841">
         <v>3</v>
@@ -63312,7 +63336,7 @@
       <c r="E1842">
         <v>1</v>
       </c>
-      <c r="K1842">
+      <c r="F1842">
         <v>1</v>
       </c>
       <c r="N1842">
@@ -63326,7 +63350,7 @@
       <c r="D1843">
         <v>1</v>
       </c>
-      <c r="F1843">
+      <c r="E1843">
         <v>1</v>
       </c>
       <c r="K1843">
@@ -63358,7 +63382,10 @@
         <v>1857</v>
       </c>
       <c r="D1845">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F1845">
+        <v>1</v>
       </c>
       <c r="K1845">
         <v>1</v>
@@ -63372,12 +63399,9 @@
         <v>1858</v>
       </c>
       <c r="D1846">
-        <v>1</v>
-      </c>
-      <c r="F1846">
-        <v>1</v>
-      </c>
-      <c r="I1846">
+        <v>2</v>
+      </c>
+      <c r="K1846">
         <v>1</v>
       </c>
       <c r="N1846">
@@ -63389,7 +63413,10 @@
         <v>1859</v>
       </c>
       <c r="D1847">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F1847">
+        <v>1</v>
       </c>
       <c r="I1847">
         <v>1</v>
@@ -63403,12 +63430,9 @@
         <v>1860</v>
       </c>
       <c r="D1848">
-        <v>1</v>
-      </c>
-      <c r="F1848">
-        <v>1</v>
-      </c>
-      <c r="H1848">
+        <v>2</v>
+      </c>
+      <c r="I1848">
         <v>1</v>
       </c>
       <c r="N1848">
@@ -63422,10 +63446,10 @@
       <c r="D1849">
         <v>1</v>
       </c>
+      <c r="F1849">
+        <v>1</v>
+      </c>
       <c r="H1849">
-        <v>1</v>
-      </c>
-      <c r="I1849">
         <v>1</v>
       </c>
       <c r="N1849">
@@ -63439,8 +63463,11 @@
       <c r="D1850">
         <v>1</v>
       </c>
-      <c r="F1850">
-        <v>2</v>
+      <c r="H1850">
+        <v>1</v>
+      </c>
+      <c r="I1850">
+        <v>1</v>
       </c>
       <c r="N1850">
         <v>3</v>
@@ -63453,11 +63480,8 @@
       <c r="D1851">
         <v>1</v>
       </c>
-      <c r="H1851">
-        <v>1</v>
-      </c>
-      <c r="J1851">
-        <v>1</v>
+      <c r="F1851">
+        <v>2</v>
       </c>
       <c r="N1851">
         <v>3</v>
@@ -63467,8 +63491,14 @@
       <c r="A1852" t="s">
         <v>1864</v>
       </c>
-      <c r="E1852">
-        <v>3</v>
+      <c r="D1852">
+        <v>1</v>
+      </c>
+      <c r="H1852">
+        <v>1</v>
+      </c>
+      <c r="J1852">
+        <v>1</v>
       </c>
       <c r="N1852">
         <v>3</v>
@@ -63479,13 +63509,7 @@
         <v>1865</v>
       </c>
       <c r="E1853">
-        <v>1</v>
-      </c>
-      <c r="H1853">
-        <v>1</v>
-      </c>
-      <c r="I1853">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1853">
         <v>3</v>
@@ -63496,7 +63520,10 @@
         <v>1866</v>
       </c>
       <c r="E1854">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H1854">
+        <v>1</v>
       </c>
       <c r="I1854">
         <v>1</v>
@@ -63510,12 +63537,9 @@
         <v>1867</v>
       </c>
       <c r="E1855">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1855">
-        <v>1</v>
-      </c>
-      <c r="K1855">
         <v>1</v>
       </c>
       <c r="N1855">
@@ -63529,8 +63553,11 @@
       <c r="E1856">
         <v>1</v>
       </c>
-      <c r="H1856">
-        <v>2</v>
+      <c r="I1856">
+        <v>1</v>
+      </c>
+      <c r="K1856">
+        <v>1</v>
       </c>
       <c r="N1856">
         <v>3</v>
@@ -63543,7 +63570,7 @@
       <c r="E1857">
         <v>1</v>
       </c>
-      <c r="J1857">
+      <c r="H1857">
         <v>2</v>
       </c>
       <c r="N1857">
@@ -63555,10 +63582,10 @@
         <v>1870</v>
       </c>
       <c r="E1858">
-        <v>2</v>
-      </c>
-      <c r="F1858">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J1858">
+        <v>2</v>
       </c>
       <c r="N1858">
         <v>3</v>
@@ -63569,12 +63596,9 @@
         <v>1871</v>
       </c>
       <c r="E1859">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1859">
-        <v>1</v>
-      </c>
-      <c r="H1859">
         <v>1</v>
       </c>
       <c r="N1859">
@@ -63588,10 +63612,10 @@
       <c r="E1860">
         <v>1</v>
       </c>
-      <c r="G1860">
-        <v>1</v>
-      </c>
-      <c r="I1860">
+      <c r="F1860">
+        <v>1</v>
+      </c>
+      <c r="H1860">
         <v>1</v>
       </c>
       <c r="N1860">
@@ -63605,10 +63629,10 @@
       <c r="E1861">
         <v>1</v>
       </c>
-      <c r="H1861">
-        <v>1</v>
-      </c>
-      <c r="L1861">
+      <c r="G1861">
+        <v>1</v>
+      </c>
+      <c r="I1861">
         <v>1</v>
       </c>
       <c r="N1861">
@@ -63620,7 +63644,13 @@
         <v>1874</v>
       </c>
       <c r="E1862">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H1862">
+        <v>1</v>
+      </c>
+      <c r="L1862">
+        <v>1</v>
       </c>
       <c r="N1862">
         <v>3</v>
@@ -63631,13 +63661,7 @@
         <v>1875</v>
       </c>
       <c r="E1863">
-        <v>1</v>
-      </c>
-      <c r="H1863">
-        <v>1</v>
-      </c>
-      <c r="I1863">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1863">
         <v>3</v>
@@ -63650,10 +63674,10 @@
       <c r="E1864">
         <v>1</v>
       </c>
-      <c r="G1864">
-        <v>1</v>
-      </c>
       <c r="H1864">
+        <v>1</v>
+      </c>
+      <c r="I1864">
         <v>1</v>
       </c>
       <c r="N1864">
@@ -63670,7 +63694,7 @@
       <c r="G1865">
         <v>1</v>
       </c>
-      <c r="I1865">
+      <c r="H1865">
         <v>1</v>
       </c>
       <c r="N1865">
@@ -63682,9 +63706,12 @@
         <v>1878</v>
       </c>
       <c r="E1866">
-        <v>2</v>
-      </c>
-      <c r="F1866">
+        <v>1</v>
+      </c>
+      <c r="G1866">
+        <v>1</v>
+      </c>
+      <c r="I1866">
         <v>1</v>
       </c>
       <c r="N1866">
@@ -63710,12 +63737,9 @@
         <v>1880</v>
       </c>
       <c r="E1868">
-        <v>1</v>
-      </c>
-      <c r="G1868">
-        <v>1</v>
-      </c>
-      <c r="H1868">
+        <v>2</v>
+      </c>
+      <c r="F1868">
         <v>1</v>
       </c>
       <c r="N1868">
@@ -63729,8 +63753,11 @@
       <c r="E1869">
         <v>1</v>
       </c>
+      <c r="G1869">
+        <v>1</v>
+      </c>
       <c r="H1869">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1869">
         <v>3</v>
@@ -63741,7 +63768,10 @@
         <v>1882</v>
       </c>
       <c r="E1870">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H1870">
+        <v>2</v>
       </c>
       <c r="N1870">
         <v>3</v>
@@ -63752,10 +63782,7 @@
         <v>1883</v>
       </c>
       <c r="E1871">
-        <v>1</v>
-      </c>
-      <c r="F1871">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N1871">
         <v>3</v>
@@ -63766,7 +63793,10 @@
         <v>1884</v>
       </c>
       <c r="E1872">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F1872">
+        <v>2</v>
       </c>
       <c r="N1872">
         <v>3</v>
@@ -63777,13 +63807,7 @@
         <v>1885</v>
       </c>
       <c r="E1873">
-        <v>1</v>
-      </c>
-      <c r="F1873">
-        <v>1</v>
-      </c>
-      <c r="L1873">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1873">
         <v>3</v>
@@ -63799,7 +63823,7 @@
       <c r="F1874">
         <v>1</v>
       </c>
-      <c r="H1874">
+      <c r="L1874">
         <v>1</v>
       </c>
       <c r="N1874">
@@ -63816,7 +63840,7 @@
       <c r="F1875">
         <v>1</v>
       </c>
-      <c r="M1875">
+      <c r="H1875">
         <v>1</v>
       </c>
       <c r="N1875">
@@ -63830,10 +63854,10 @@
       <c r="E1876">
         <v>1</v>
       </c>
-      <c r="I1876">
-        <v>1</v>
-      </c>
-      <c r="J1876">
+      <c r="F1876">
+        <v>1</v>
+      </c>
+      <c r="M1876">
         <v>1</v>
       </c>
       <c r="N1876">
@@ -63847,10 +63871,10 @@
       <c r="E1877">
         <v>1</v>
       </c>
-      <c r="F1877">
-        <v>1</v>
-      </c>
-      <c r="H1877">
+      <c r="I1877">
+        <v>1</v>
+      </c>
+      <c r="J1877">
         <v>1</v>
       </c>
       <c r="N1877">
@@ -63864,8 +63888,11 @@
       <c r="E1878">
         <v>1</v>
       </c>
+      <c r="F1878">
+        <v>1</v>
+      </c>
       <c r="H1878">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1878">
         <v>3</v>
@@ -63878,7 +63905,7 @@
       <c r="E1879">
         <v>1</v>
       </c>
-      <c r="G1879">
+      <c r="H1879">
         <v>2</v>
       </c>
       <c r="N1879">
@@ -63893,10 +63920,7 @@
         <v>1</v>
       </c>
       <c r="G1880">
-        <v>1</v>
-      </c>
-      <c r="H1880">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1880">
         <v>3</v>
@@ -63926,8 +63950,11 @@
       <c r="E1882">
         <v>1</v>
       </c>
+      <c r="G1882">
+        <v>1</v>
+      </c>
       <c r="H1882">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1882">
         <v>3</v>
@@ -63938,10 +63965,10 @@
         <v>1895</v>
       </c>
       <c r="E1883">
-        <v>2</v>
-      </c>
-      <c r="F1883">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H1883">
+        <v>2</v>
       </c>
       <c r="N1883">
         <v>3</v>
@@ -63952,12 +63979,9 @@
         <v>1896</v>
       </c>
       <c r="E1884">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1884">
-        <v>1</v>
-      </c>
-      <c r="J1884">
         <v>1</v>
       </c>
       <c r="N1884">
@@ -63986,9 +64010,12 @@
         <v>1898</v>
       </c>
       <c r="E1886">
-        <v>2</v>
-      </c>
-      <c r="I1886">
+        <v>1</v>
+      </c>
+      <c r="F1886">
+        <v>1</v>
+      </c>
+      <c r="J1886">
         <v>1</v>
       </c>
       <c r="N1886">
@@ -64002,7 +64029,7 @@
       <c r="E1887">
         <v>2</v>
       </c>
-      <c r="J1887">
+      <c r="I1887">
         <v>1</v>
       </c>
       <c r="N1887">
@@ -64014,12 +64041,9 @@
         <v>1900</v>
       </c>
       <c r="E1888">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1888">
-        <v>1</v>
-      </c>
-      <c r="L1888">
         <v>1</v>
       </c>
       <c r="N1888">
@@ -64033,10 +64057,10 @@
       <c r="E1889">
         <v>1</v>
       </c>
-      <c r="H1889">
-        <v>1</v>
-      </c>
-      <c r="K1889">
+      <c r="J1889">
+        <v>1</v>
+      </c>
+      <c r="L1889">
         <v>1</v>
       </c>
       <c r="N1889">
@@ -64050,10 +64074,10 @@
       <c r="E1890">
         <v>1</v>
       </c>
+      <c r="H1890">
+        <v>1</v>
+      </c>
       <c r="K1890">
-        <v>1</v>
-      </c>
-      <c r="L1890">
         <v>1</v>
       </c>
       <c r="N1890">
@@ -64067,10 +64091,10 @@
       <c r="E1891">
         <v>1</v>
       </c>
-      <c r="I1891">
-        <v>1</v>
-      </c>
-      <c r="J1891">
+      <c r="K1891">
+        <v>1</v>
+      </c>
+      <c r="L1891">
         <v>1</v>
       </c>
       <c r="N1891">
@@ -64084,8 +64108,11 @@
       <c r="E1892">
         <v>1</v>
       </c>
-      <c r="H1892">
-        <v>2</v>
+      <c r="I1892">
+        <v>1</v>
+      </c>
+      <c r="J1892">
+        <v>1</v>
       </c>
       <c r="N1892">
         <v>3</v>
@@ -64096,10 +64123,10 @@
         <v>1905</v>
       </c>
       <c r="E1893">
-        <v>2</v>
-      </c>
-      <c r="K1893">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H1893">
+        <v>2</v>
       </c>
       <c r="N1893">
         <v>3</v>
@@ -64110,12 +64137,9 @@
         <v>1906</v>
       </c>
       <c r="E1894">
-        <v>1</v>
-      </c>
-      <c r="J1894">
-        <v>1</v>
-      </c>
-      <c r="L1894">
+        <v>2</v>
+      </c>
+      <c r="K1894">
         <v>1</v>
       </c>
       <c r="N1894">
@@ -64129,10 +64153,10 @@
       <c r="E1895">
         <v>1</v>
       </c>
-      <c r="H1895">
-        <v>1</v>
-      </c>
-      <c r="K1895">
+      <c r="J1895">
+        <v>1</v>
+      </c>
+      <c r="L1895">
         <v>1</v>
       </c>
       <c r="N1895">
@@ -64146,10 +64170,10 @@
       <c r="E1896">
         <v>1</v>
       </c>
-      <c r="F1896">
-        <v>1</v>
-      </c>
-      <c r="L1896">
+      <c r="H1896">
+        <v>1</v>
+      </c>
+      <c r="K1896">
         <v>1</v>
       </c>
       <c r="N1896">
@@ -64163,10 +64187,10 @@
       <c r="E1897">
         <v>1</v>
       </c>
-      <c r="H1897">
-        <v>1</v>
-      </c>
-      <c r="M1897">
+      <c r="F1897">
+        <v>1</v>
+      </c>
+      <c r="L1897">
         <v>1</v>
       </c>
       <c r="N1897">
@@ -64180,8 +64204,11 @@
       <c r="E1898">
         <v>1</v>
       </c>
-      <c r="F1898">
-        <v>2</v>
+      <c r="H1898">
+        <v>1</v>
+      </c>
+      <c r="M1898">
+        <v>1</v>
       </c>
       <c r="N1898">
         <v>3</v>
@@ -64194,11 +64221,8 @@
       <c r="E1899">
         <v>1</v>
       </c>
-      <c r="H1899">
-        <v>1</v>
-      </c>
-      <c r="I1899">
-        <v>1</v>
+      <c r="F1899">
+        <v>2</v>
       </c>
       <c r="N1899">
         <v>3</v>
@@ -64211,10 +64235,10 @@
       <c r="E1900">
         <v>1</v>
       </c>
-      <c r="G1900">
-        <v>1</v>
-      </c>
       <c r="H1900">
+        <v>1</v>
+      </c>
+      <c r="I1900">
         <v>1</v>
       </c>
       <c r="N1900">
@@ -64228,10 +64252,10 @@
       <c r="E1901">
         <v>1</v>
       </c>
-      <c r="J1901">
-        <v>1</v>
-      </c>
-      <c r="L1901">
+      <c r="G1901">
+        <v>1</v>
+      </c>
+      <c r="H1901">
         <v>1</v>
       </c>
       <c r="N1901">
@@ -64245,10 +64269,10 @@
       <c r="E1902">
         <v>1</v>
       </c>
-      <c r="K1902">
-        <v>1</v>
-      </c>
-      <c r="M1902">
+      <c r="J1902">
+        <v>1</v>
+      </c>
+      <c r="L1902">
         <v>1</v>
       </c>
       <c r="N1902">
@@ -64262,8 +64286,11 @@
       <c r="E1903">
         <v>1</v>
       </c>
-      <c r="J1903">
-        <v>2</v>
+      <c r="K1903">
+        <v>1</v>
+      </c>
+      <c r="M1903">
+        <v>1</v>
       </c>
       <c r="N1903">
         <v>3</v>
@@ -64273,14 +64300,11 @@
       <c r="A1904" t="s">
         <v>1916</v>
       </c>
-      <c r="F1904">
-        <v>1</v>
-      </c>
-      <c r="H1904">
+      <c r="E1904">
         <v>1</v>
       </c>
       <c r="J1904">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N1904">
         <v>3</v>
@@ -64296,7 +64320,7 @@
       <c r="H1905">
         <v>1</v>
       </c>
-      <c r="L1905">
+      <c r="J1905">
         <v>1</v>
       </c>
       <c r="N1905">
@@ -64308,9 +64332,12 @@
         <v>1918</v>
       </c>
       <c r="F1906">
-        <v>2</v>
-      </c>
-      <c r="I1906">
+        <v>1</v>
+      </c>
+      <c r="H1906">
+        <v>1</v>
+      </c>
+      <c r="L1906">
         <v>1</v>
       </c>
       <c r="N1906">
@@ -64322,7 +64349,10 @@
         <v>1919</v>
       </c>
       <c r="F1907">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I1907">
+        <v>1</v>
       </c>
       <c r="N1907">
         <v>3</v>
@@ -64333,10 +64363,7 @@
         <v>1920</v>
       </c>
       <c r="F1908">
-        <v>2</v>
-      </c>
-      <c r="I1908">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1908">
         <v>3</v>
@@ -64347,10 +64374,7 @@
         <v>1921</v>
       </c>
       <c r="F1909">
-        <v>1</v>
-      </c>
-      <c r="G1909">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1909">
         <v>1</v>
@@ -64366,10 +64390,10 @@
       <c r="F1910">
         <v>1</v>
       </c>
+      <c r="G1910">
+        <v>1</v>
+      </c>
       <c r="I1910">
-        <v>1</v>
-      </c>
-      <c r="M1910">
         <v>1</v>
       </c>
       <c r="N1910">
@@ -64383,10 +64407,10 @@
       <c r="F1911">
         <v>1</v>
       </c>
-      <c r="H1911">
-        <v>1</v>
-      </c>
-      <c r="K1911">
+      <c r="I1911">
+        <v>1</v>
+      </c>
+      <c r="M1911">
         <v>1</v>
       </c>
       <c r="N1911">
@@ -64400,10 +64424,10 @@
       <c r="F1912">
         <v>1</v>
       </c>
-      <c r="I1912">
-        <v>1</v>
-      </c>
-      <c r="L1912">
+      <c r="H1912">
+        <v>1</v>
+      </c>
+      <c r="K1912">
         <v>1</v>
       </c>
       <c r="N1912">
@@ -64415,9 +64439,12 @@
         <v>1925</v>
       </c>
       <c r="F1913">
-        <v>2</v>
-      </c>
-      <c r="H1913">
+        <v>1</v>
+      </c>
+      <c r="I1913">
+        <v>1</v>
+      </c>
+      <c r="L1913">
         <v>1</v>
       </c>
       <c r="N1913">
@@ -64429,12 +64456,9 @@
         <v>1926</v>
       </c>
       <c r="F1914">
-        <v>1</v>
-      </c>
-      <c r="G1914">
-        <v>1</v>
-      </c>
-      <c r="I1914">
+        <v>2</v>
+      </c>
+      <c r="H1914">
         <v>1</v>
       </c>
       <c r="N1914">
@@ -64448,10 +64472,10 @@
       <c r="F1915">
         <v>1</v>
       </c>
-      <c r="J1915">
-        <v>1</v>
-      </c>
-      <c r="K1915">
+      <c r="G1915">
+        <v>1</v>
+      </c>
+      <c r="I1915">
         <v>1</v>
       </c>
       <c r="N1915">
@@ -64465,7 +64489,7 @@
       <c r="F1916">
         <v>1</v>
       </c>
-      <c r="I1916">
+      <c r="J1916">
         <v>1</v>
       </c>
       <c r="K1916">
@@ -64482,7 +64506,7 @@
       <c r="F1917">
         <v>1</v>
       </c>
-      <c r="J1917">
+      <c r="I1917">
         <v>1</v>
       </c>
       <c r="K1917">
@@ -64502,7 +64526,7 @@
       <c r="J1918">
         <v>1</v>
       </c>
-      <c r="L1918">
+      <c r="K1918">
         <v>1</v>
       </c>
       <c r="N1918">
@@ -64516,8 +64540,11 @@
       <c r="F1919">
         <v>1</v>
       </c>
+      <c r="J1919">
+        <v>1</v>
+      </c>
       <c r="L1919">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1919">
         <v>3</v>
@@ -64528,10 +64555,10 @@
         <v>1932</v>
       </c>
       <c r="F1920">
-        <v>2</v>
-      </c>
-      <c r="G1920">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L1920">
+        <v>2</v>
       </c>
       <c r="N1920">
         <v>3</v>
@@ -64544,7 +64571,7 @@
       <c r="F1921">
         <v>2</v>
       </c>
-      <c r="H1921">
+      <c r="G1921">
         <v>1</v>
       </c>
       <c r="N1921">
@@ -64556,10 +64583,10 @@
         <v>1934</v>
       </c>
       <c r="F1922">
-        <v>1</v>
-      </c>
-      <c r="J1922">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H1922">
+        <v>1</v>
       </c>
       <c r="N1922">
         <v>3</v>
@@ -64586,11 +64613,8 @@
       <c r="F1924">
         <v>1</v>
       </c>
-      <c r="I1924">
-        <v>1</v>
-      </c>
-      <c r="K1924">
-        <v>1</v>
+      <c r="J1924">
+        <v>2</v>
       </c>
       <c r="N1924">
         <v>3</v>
@@ -64601,7 +64625,13 @@
         <v>1937</v>
       </c>
       <c r="F1925">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I1925">
+        <v>1</v>
+      </c>
+      <c r="K1925">
+        <v>1</v>
       </c>
       <c r="N1925">
         <v>3</v>
@@ -64612,13 +64642,7 @@
         <v>1938</v>
       </c>
       <c r="F1926">
-        <v>1</v>
-      </c>
-      <c r="H1926">
-        <v>1</v>
-      </c>
-      <c r="I1926">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1926">
         <v>3</v>
@@ -64629,9 +64653,12 @@
         <v>1939</v>
       </c>
       <c r="F1927">
-        <v>2</v>
-      </c>
-      <c r="G1927">
+        <v>1</v>
+      </c>
+      <c r="H1927">
+        <v>1</v>
+      </c>
+      <c r="I1927">
         <v>1</v>
       </c>
       <c r="N1927">
@@ -64643,12 +64670,9 @@
         <v>1940</v>
       </c>
       <c r="F1928">
-        <v>1</v>
-      </c>
-      <c r="H1928">
-        <v>1</v>
-      </c>
-      <c r="I1928">
+        <v>2</v>
+      </c>
+      <c r="G1928">
         <v>1</v>
       </c>
       <c r="N1928">
@@ -64662,10 +64686,10 @@
       <c r="F1929">
         <v>1</v>
       </c>
-      <c r="G1929">
-        <v>1</v>
-      </c>
       <c r="H1929">
+        <v>1</v>
+      </c>
+      <c r="I1929">
         <v>1</v>
       </c>
       <c r="N1929">
@@ -64677,9 +64701,12 @@
         <v>1942</v>
       </c>
       <c r="F1930">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1930">
+        <v>1</v>
+      </c>
+      <c r="H1930">
         <v>1</v>
       </c>
       <c r="N1930">
@@ -64691,10 +64718,10 @@
         <v>1943</v>
       </c>
       <c r="F1931">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1931">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1931">
         <v>3</v>
@@ -64707,11 +64734,8 @@
       <c r="F1932">
         <v>1</v>
       </c>
-      <c r="I1932">
-        <v>1</v>
-      </c>
-      <c r="L1932">
-        <v>1</v>
+      <c r="G1932">
+        <v>2</v>
       </c>
       <c r="N1932">
         <v>3</v>
@@ -64724,8 +64748,11 @@
       <c r="F1933">
         <v>1</v>
       </c>
-      <c r="H1933">
-        <v>2</v>
+      <c r="I1933">
+        <v>1</v>
+      </c>
+      <c r="L1933">
+        <v>1</v>
       </c>
       <c r="N1933">
         <v>3</v>
@@ -64738,11 +64765,8 @@
       <c r="F1934">
         <v>1</v>
       </c>
-      <c r="G1934">
-        <v>1</v>
-      </c>
-      <c r="I1934">
-        <v>1</v>
+      <c r="H1934">
+        <v>2</v>
       </c>
       <c r="N1934">
         <v>3</v>
@@ -64755,8 +64779,11 @@
       <c r="F1935">
         <v>1</v>
       </c>
-      <c r="H1935">
-        <v>2</v>
+      <c r="G1935">
+        <v>1</v>
+      </c>
+      <c r="I1935">
+        <v>1</v>
       </c>
       <c r="N1935">
         <v>3</v>
@@ -64769,7 +64796,7 @@
       <c r="F1936">
         <v>1</v>
       </c>
-      <c r="J1936">
+      <c r="H1936">
         <v>2</v>
       </c>
       <c r="N1936">
@@ -64783,11 +64810,8 @@
       <c r="F1937">
         <v>1</v>
       </c>
-      <c r="H1937">
-        <v>1</v>
-      </c>
-      <c r="K1937">
-        <v>1</v>
+      <c r="J1937">
+        <v>2</v>
       </c>
       <c r="N1937">
         <v>3</v>
@@ -64800,10 +64824,10 @@
       <c r="F1938">
         <v>1</v>
       </c>
-      <c r="J1938">
-        <v>1</v>
-      </c>
-      <c r="M1938">
+      <c r="H1938">
+        <v>1</v>
+      </c>
+      <c r="K1938">
         <v>1</v>
       </c>
       <c r="N1938">
@@ -64815,7 +64839,13 @@
         <v>1951</v>
       </c>
       <c r="F1939">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J1939">
+        <v>1</v>
+      </c>
+      <c r="M1939">
+        <v>1</v>
       </c>
       <c r="N1939">
         <v>3</v>
@@ -64826,13 +64856,7 @@
         <v>1952</v>
       </c>
       <c r="F1940">
-        <v>1</v>
-      </c>
-      <c r="I1940">
-        <v>1</v>
-      </c>
-      <c r="J1940">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N1940">
         <v>3</v>
@@ -64842,11 +64866,14 @@
       <c r="A1941" t="s">
         <v>1953</v>
       </c>
-      <c r="G1941">
-        <v>1</v>
-      </c>
-      <c r="K1941">
-        <v>2</v>
+      <c r="F1941">
+        <v>1</v>
+      </c>
+      <c r="I1941">
+        <v>1</v>
+      </c>
+      <c r="J1941">
+        <v>1</v>
       </c>
       <c r="N1941">
         <v>3</v>
@@ -64857,10 +64884,10 @@
         <v>1954</v>
       </c>
       <c r="G1942">
-        <v>2</v>
-      </c>
-      <c r="H1942">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K1942">
+        <v>2</v>
       </c>
       <c r="N1942">
         <v>3</v>
@@ -64871,12 +64898,9 @@
         <v>1955</v>
       </c>
       <c r="G1943">
-        <v>1</v>
-      </c>
-      <c r="I1943">
-        <v>1</v>
-      </c>
-      <c r="J1943">
+        <v>2</v>
+      </c>
+      <c r="H1943">
         <v>1</v>
       </c>
       <c r="N1943">
@@ -64890,10 +64914,10 @@
       <c r="G1944">
         <v>1</v>
       </c>
-      <c r="H1944">
-        <v>1</v>
-      </c>
-      <c r="K1944">
+      <c r="I1944">
+        <v>1</v>
+      </c>
+      <c r="J1944">
         <v>1</v>
       </c>
       <c r="N1944">
@@ -64907,10 +64931,10 @@
       <c r="G1945">
         <v>1</v>
       </c>
-      <c r="I1945">
-        <v>1</v>
-      </c>
-      <c r="M1945">
+      <c r="H1945">
+        <v>1</v>
+      </c>
+      <c r="K1945">
         <v>1</v>
       </c>
       <c r="N1945">
@@ -64922,9 +64946,12 @@
         <v>1958</v>
       </c>
       <c r="G1946">
-        <v>2</v>
-      </c>
-      <c r="L1946">
+        <v>1</v>
+      </c>
+      <c r="I1946">
+        <v>1</v>
+      </c>
+      <c r="M1946">
         <v>1</v>
       </c>
       <c r="N1946">
@@ -64936,12 +64963,9 @@
         <v>1959</v>
       </c>
       <c r="G1947">
-        <v>1</v>
-      </c>
-      <c r="I1947">
-        <v>1</v>
-      </c>
-      <c r="J1947">
+        <v>2</v>
+      </c>
+      <c r="L1947">
         <v>1</v>
       </c>
       <c r="N1947">
@@ -77112,7 +77136,7 @@
       <c r="I2835">
         <v>1</v>
       </c>
-      <c r="J2835">
+      <c r="M2835">
         <v>1</v>
       </c>
       <c r="N2835">
@@ -77154,7 +77178,7 @@
       <c r="I2838">
         <v>1</v>
       </c>
-      <c r="K2838">
+      <c r="J2838">
         <v>1</v>
       </c>
       <c r="N2838">
@@ -77168,7 +77192,7 @@
       <c r="I2839">
         <v>1</v>
       </c>
-      <c r="L2839">
+      <c r="K2839">
         <v>1</v>
       </c>
       <c r="N2839">
@@ -77210,7 +77234,7 @@
       <c r="I2842">
         <v>1</v>
       </c>
-      <c r="J2842">
+      <c r="L2842">
         <v>1</v>
       </c>
       <c r="N2842">
@@ -77224,7 +77248,7 @@
       <c r="I2843">
         <v>1</v>
       </c>
-      <c r="L2843">
+      <c r="J2843">
         <v>1</v>
       </c>
       <c r="N2843">
@@ -77252,7 +77276,7 @@
       <c r="I2845">
         <v>1</v>
       </c>
-      <c r="M2845">
+      <c r="L2845">
         <v>1</v>
       </c>
       <c r="N2845">
@@ -77264,7 +77288,10 @@
         <v>2858</v>
       </c>
       <c r="I2846">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M2846">
+        <v>1</v>
       </c>
       <c r="N2846">
         <v>2</v>
@@ -77286,10 +77313,7 @@
         <v>2860</v>
       </c>
       <c r="I2848">
-        <v>1</v>
-      </c>
-      <c r="K2848">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2848">
         <v>2</v>
@@ -77302,7 +77326,7 @@
       <c r="I2849">
         <v>1</v>
       </c>
-      <c r="J2849">
+      <c r="K2849">
         <v>1</v>
       </c>
       <c r="N2849">
@@ -77372,7 +77396,7 @@
       <c r="I2854">
         <v>1</v>
       </c>
-      <c r="L2854">
+      <c r="J2854">
         <v>1</v>
       </c>
       <c r="N2854">
@@ -77384,7 +77408,10 @@
         <v>2867</v>
       </c>
       <c r="I2855">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2855">
+        <v>1</v>
       </c>
       <c r="N2855">
         <v>2</v>
@@ -77395,10 +77422,7 @@
         <v>2868</v>
       </c>
       <c r="I2856">
-        <v>1</v>
-      </c>
-      <c r="J2856">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2856">
         <v>2</v>
@@ -77411,7 +77435,7 @@
       <c r="I2857">
         <v>1</v>
       </c>
-      <c r="K2857">
+      <c r="J2857">
         <v>1</v>
       </c>
       <c r="N2857">
@@ -77425,7 +77449,7 @@
       <c r="I2858">
         <v>1</v>
       </c>
-      <c r="J2858">
+      <c r="K2858">
         <v>1</v>
       </c>
       <c r="N2858">
@@ -77437,7 +77461,10 @@
         <v>2871</v>
       </c>
       <c r="I2859">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J2859">
+        <v>1</v>
       </c>
       <c r="N2859">
         <v>2</v>
@@ -77448,10 +77475,7 @@
         <v>2872</v>
       </c>
       <c r="I2860">
-        <v>1</v>
-      </c>
-      <c r="L2860">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2860">
         <v>2</v>
@@ -77464,7 +77488,7 @@
       <c r="I2861">
         <v>1</v>
       </c>
-      <c r="J2861">
+      <c r="L2861">
         <v>1</v>
       </c>
       <c r="N2861">
@@ -77492,7 +77516,7 @@
       <c r="I2863">
         <v>1</v>
       </c>
-      <c r="K2863">
+      <c r="J2863">
         <v>1</v>
       </c>
       <c r="N2863">
@@ -77506,7 +77530,7 @@
       <c r="I2864">
         <v>1</v>
       </c>
-      <c r="J2864">
+      <c r="K2864">
         <v>1</v>
       </c>
       <c r="N2864">
@@ -77534,7 +77558,7 @@
       <c r="I2866">
         <v>1</v>
       </c>
-      <c r="K2866">
+      <c r="J2866">
         <v>1</v>
       </c>
       <c r="N2866">
@@ -77546,7 +77570,10 @@
         <v>2879</v>
       </c>
       <c r="I2867">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K2867">
+        <v>1</v>
       </c>
       <c r="N2867">
         <v>2</v>
@@ -77590,10 +77617,7 @@
         <v>2883</v>
       </c>
       <c r="I2871">
-        <v>1</v>
-      </c>
-      <c r="L2871">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2871">
         <v>2</v>
@@ -77606,7 +77630,7 @@
       <c r="I2872">
         <v>1</v>
       </c>
-      <c r="K2872">
+      <c r="L2872">
         <v>1</v>
       </c>
       <c r="N2872">
@@ -77620,7 +77644,7 @@
       <c r="I2873">
         <v>1</v>
       </c>
-      <c r="M2873">
+      <c r="K2873">
         <v>1</v>
       </c>
       <c r="N2873">
@@ -77634,7 +77658,7 @@
       <c r="I2874">
         <v>1</v>
       </c>
-      <c r="J2874">
+      <c r="M2874">
         <v>1</v>
       </c>
       <c r="N2874">
@@ -77662,7 +77686,7 @@
       <c r="I2876">
         <v>1</v>
       </c>
-      <c r="L2876">
+      <c r="J2876">
         <v>1</v>
       </c>
       <c r="N2876">
@@ -77676,7 +77700,7 @@
       <c r="I2877">
         <v>1</v>
       </c>
-      <c r="J2877">
+      <c r="L2877">
         <v>1</v>
       </c>
       <c r="N2877">
@@ -77702,7 +77726,10 @@
         <v>2891</v>
       </c>
       <c r="I2879">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J2879">
+        <v>1</v>
       </c>
       <c r="N2879">
         <v>2</v>
@@ -77713,10 +77740,7 @@
         <v>2892</v>
       </c>
       <c r="I2880">
-        <v>1</v>
-      </c>
-      <c r="K2880">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2880">
         <v>2</v>
@@ -77741,7 +77765,10 @@
         <v>2894</v>
       </c>
       <c r="I2882">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K2882">
+        <v>1</v>
       </c>
       <c r="N2882">
         <v>2</v>
@@ -77752,10 +77779,7 @@
         <v>2895</v>
       </c>
       <c r="I2883">
-        <v>1</v>
-      </c>
-      <c r="L2883">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2883">
         <v>2</v>
@@ -77779,10 +77803,10 @@
       <c r="A2885" t="s">
         <v>2897</v>
       </c>
-      <c r="J2885">
-        <v>1</v>
-      </c>
-      <c r="K2885">
+      <c r="I2885">
+        <v>1</v>
+      </c>
+      <c r="L2885">
         <v>1</v>
       </c>
       <c r="N2885">
@@ -77796,7 +77820,7 @@
       <c r="J2886">
         <v>1</v>
       </c>
-      <c r="L2886">
+      <c r="K2886">
         <v>1</v>
       </c>
       <c r="N2886">
@@ -77808,7 +77832,10 @@
         <v>2899</v>
       </c>
       <c r="J2887">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2887">
+        <v>1</v>
       </c>
       <c r="N2887">
         <v>2</v>
@@ -77830,10 +77857,7 @@
         <v>2901</v>
       </c>
       <c r="J2889">
-        <v>1</v>
-      </c>
-      <c r="K2889">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2889">
         <v>2</v>
@@ -77846,7 +77870,7 @@
       <c r="J2890">
         <v>1</v>
       </c>
-      <c r="L2890">
+      <c r="K2890">
         <v>1</v>
       </c>
       <c r="N2890">
@@ -77858,7 +77882,10 @@
         <v>2903</v>
       </c>
       <c r="J2891">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2891">
+        <v>1</v>
       </c>
       <c r="N2891">
         <v>2</v>
@@ -77869,10 +77896,7 @@
         <v>2904</v>
       </c>
       <c r="J2892">
-        <v>1</v>
-      </c>
-      <c r="L2892">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2892">
         <v>2</v>
@@ -77885,7 +77909,7 @@
       <c r="J2893">
         <v>1</v>
       </c>
-      <c r="K2893">
+      <c r="L2893">
         <v>1</v>
       </c>
       <c r="N2893">
@@ -77897,7 +77921,10 @@
         <v>2906</v>
       </c>
       <c r="J2894">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K2894">
+        <v>1</v>
       </c>
       <c r="N2894">
         <v>2</v>
@@ -77919,10 +77946,7 @@
         <v>2908</v>
       </c>
       <c r="J2896">
-        <v>1</v>
-      </c>
-      <c r="K2896">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2896">
         <v>2</v>
@@ -77935,7 +77959,7 @@
       <c r="J2897">
         <v>1</v>
       </c>
-      <c r="L2897">
+      <c r="K2897">
         <v>1</v>
       </c>
       <c r="N2897">
@@ -77947,7 +77971,10 @@
         <v>2910</v>
       </c>
       <c r="J2898">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2898">
+        <v>1</v>
       </c>
       <c r="N2898">
         <v>2</v>
@@ -77969,10 +77996,7 @@
         <v>2912</v>
       </c>
       <c r="J2900">
-        <v>1</v>
-      </c>
-      <c r="L2900">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2900">
         <v>2</v>
@@ -78011,7 +78035,10 @@
         <v>2915</v>
       </c>
       <c r="J2903">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2903">
+        <v>1</v>
       </c>
       <c r="N2903">
         <v>2</v>
@@ -78055,10 +78082,7 @@
         <v>2919</v>
       </c>
       <c r="J2907">
-        <v>1</v>
-      </c>
-      <c r="L2907">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2907">
         <v>2</v>
@@ -78071,7 +78095,7 @@
       <c r="J2908">
         <v>1</v>
       </c>
-      <c r="M2908">
+      <c r="L2908">
         <v>1</v>
       </c>
       <c r="N2908">
@@ -78085,7 +78109,7 @@
       <c r="J2909">
         <v>1</v>
       </c>
-      <c r="L2909">
+      <c r="M2909">
         <v>1</v>
       </c>
       <c r="N2909">
@@ -78099,7 +78123,7 @@
       <c r="J2910">
         <v>1</v>
       </c>
-      <c r="K2910">
+      <c r="L2910">
         <v>1</v>
       </c>
       <c r="N2910">
@@ -78139,7 +78163,10 @@
         <v>2925</v>
       </c>
       <c r="J2913">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K2913">
+        <v>1</v>
       </c>
       <c r="N2913">
         <v>2</v>
@@ -78161,10 +78188,7 @@
         <v>2927</v>
       </c>
       <c r="J2915">
-        <v>1</v>
-      </c>
-      <c r="K2915">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2915">
         <v>2</v>
@@ -78175,7 +78199,10 @@
         <v>2928</v>
       </c>
       <c r="J2916">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K2916">
+        <v>1</v>
       </c>
       <c r="N2916">
         <v>2</v>
@@ -78186,10 +78213,7 @@
         <v>2929</v>
       </c>
       <c r="J2917">
-        <v>1</v>
-      </c>
-      <c r="L2917">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2917">
         <v>2</v>
@@ -78200,7 +78224,10 @@
         <v>2930</v>
       </c>
       <c r="J2918">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2918">
+        <v>1</v>
       </c>
       <c r="N2918">
         <v>2</v>
@@ -78222,10 +78249,7 @@
         <v>2932</v>
       </c>
       <c r="J2920">
-        <v>1</v>
-      </c>
-      <c r="K2920">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2920">
         <v>2</v>
@@ -78238,7 +78262,7 @@
       <c r="J2921">
         <v>1</v>
       </c>
-      <c r="L2921">
+      <c r="K2921">
         <v>1</v>
       </c>
       <c r="N2921">
@@ -78280,7 +78304,7 @@
       <c r="J2924">
         <v>1</v>
       </c>
-      <c r="K2924">
+      <c r="L2924">
         <v>1</v>
       </c>
       <c r="N2924">
@@ -78294,7 +78318,7 @@
       <c r="J2925">
         <v>1</v>
       </c>
-      <c r="L2925">
+      <c r="K2925">
         <v>1</v>
       </c>
       <c r="N2925">
@@ -78306,7 +78330,10 @@
         <v>2938</v>
       </c>
       <c r="J2926">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2926">
+        <v>1</v>
       </c>
       <c r="N2926">
         <v>2</v>
@@ -78317,10 +78344,7 @@
         <v>2939</v>
       </c>
       <c r="J2927">
-        <v>1</v>
-      </c>
-      <c r="K2927">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2927">
         <v>2</v>
@@ -78333,7 +78357,7 @@
       <c r="J2928">
         <v>1</v>
       </c>
-      <c r="L2928">
+      <c r="K2928">
         <v>1</v>
       </c>
       <c r="N2928">
@@ -78345,7 +78369,10 @@
         <v>2941</v>
       </c>
       <c r="J2929">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2929">
+        <v>1</v>
       </c>
       <c r="N2929">
         <v>2</v>
@@ -78356,10 +78383,7 @@
         <v>2942</v>
       </c>
       <c r="J2930">
-        <v>1</v>
-      </c>
-      <c r="K2930">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2930">
         <v>2</v>
@@ -78370,7 +78394,10 @@
         <v>2943</v>
       </c>
       <c r="J2931">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K2931">
+        <v>1</v>
       </c>
       <c r="N2931">
         <v>2</v>
@@ -78381,10 +78408,7 @@
         <v>2944</v>
       </c>
       <c r="J2932">
-        <v>1</v>
-      </c>
-      <c r="K2932">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2932">
         <v>2</v>
@@ -78394,8 +78418,11 @@
       <c r="A2933" t="s">
         <v>2945</v>
       </c>
+      <c r="J2933">
+        <v>1</v>
+      </c>
       <c r="K2933">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2933">
         <v>2</v>
@@ -78428,10 +78455,7 @@
         <v>2948</v>
       </c>
       <c r="K2936">
-        <v>1</v>
-      </c>
-      <c r="L2936">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2936">
         <v>2</v>
@@ -78458,7 +78482,7 @@
       <c r="K2938">
         <v>1</v>
       </c>
-      <c r="M2938">
+      <c r="L2938">
         <v>1</v>
       </c>
       <c r="N2938">
@@ -78470,7 +78494,10 @@
         <v>2951</v>
       </c>
       <c r="K2939">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M2939">
+        <v>1</v>
       </c>
       <c r="N2939">
         <v>2</v>
@@ -78481,10 +78508,7 @@
         <v>2952</v>
       </c>
       <c r="K2940">
-        <v>1</v>
-      </c>
-      <c r="L2940">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2940">
         <v>2</v>
@@ -78509,7 +78533,10 @@
         <v>2954</v>
       </c>
       <c r="K2942">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2942">
+        <v>1</v>
       </c>
       <c r="N2942">
         <v>2</v>
@@ -78531,10 +78558,7 @@
         <v>2956</v>
       </c>
       <c r="K2944">
-        <v>1</v>
-      </c>
-      <c r="L2944">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2944">
         <v>2</v>
@@ -78545,7 +78569,10 @@
         <v>2957</v>
       </c>
       <c r="K2945">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2945">
+        <v>1</v>
       </c>
       <c r="N2945">
         <v>2</v>
@@ -78556,10 +78583,7 @@
         <v>2958</v>
       </c>
       <c r="K2946">
-        <v>1</v>
-      </c>
-      <c r="L2946">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2946">
         <v>2</v>
@@ -78626,7 +78650,10 @@
         <v>2963</v>
       </c>
       <c r="K2951">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2951">
+        <v>1</v>
       </c>
       <c r="N2951">
         <v>2</v>
@@ -78637,10 +78664,7 @@
         <v>2964</v>
       </c>
       <c r="K2952">
-        <v>1</v>
-      </c>
-      <c r="L2952">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2952">
         <v>2</v>
@@ -78651,7 +78675,10 @@
         <v>2965</v>
       </c>
       <c r="K2953">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L2953">
+        <v>1</v>
       </c>
       <c r="N2953">
         <v>2</v>
@@ -78662,10 +78689,7 @@
         <v>2966</v>
       </c>
       <c r="K2954">
-        <v>1</v>
-      </c>
-      <c r="L2954">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2954">
         <v>2</v>
@@ -78689,8 +78713,11 @@
       <c r="A2956" t="s">
         <v>2968</v>
       </c>
+      <c r="K2956">
+        <v>1</v>
+      </c>
       <c r="L2956">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2956">
         <v>2</v>
@@ -78756,10 +78783,7 @@
         <v>2974</v>
       </c>
       <c r="L2962">
-        <v>1</v>
-      </c>
-      <c r="M2962">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2962">
         <v>2</v>
@@ -78770,7 +78794,10 @@
         <v>2975</v>
       </c>
       <c r="L2963">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M2963">
+        <v>1</v>
       </c>
       <c r="N2963">
         <v>2</v>
@@ -78912,7 +78939,7 @@
       <c r="A2976" t="s">
         <v>2988</v>
       </c>
-      <c r="M2976">
+      <c r="L2976">
         <v>2</v>
       </c>
       <c r="N2976">
@@ -78934,11 +78961,11 @@
       <c r="A2978" t="s">
         <v>2990</v>
       </c>
-      <c r="B2978">
-        <v>1</v>
+      <c r="M2978">
+        <v>2</v>
       </c>
       <c r="N2978">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2979" spans="1:14">
@@ -83587,7 +83614,7 @@
       <c r="A3401" t="s">
         <v>3413</v>
       </c>
-      <c r="C3401">
+      <c r="B3401">
         <v>1</v>
       </c>
       <c r="N3401">
@@ -87327,7 +87354,7 @@
       <c r="A3741" t="s">
         <v>3753</v>
       </c>
-      <c r="D3741">
+      <c r="C3741">
         <v>1</v>
       </c>
       <c r="N3741">
@@ -91056,7 +91083,7 @@
       <c r="A4080" t="s">
         <v>4092</v>
       </c>
-      <c r="E4080">
+      <c r="D4080">
         <v>1</v>
       </c>
       <c r="N4080">
@@ -94356,7 +94383,7 @@
       <c r="A4380" t="s">
         <v>4392</v>
       </c>
-      <c r="F4380">
+      <c r="E4380">
         <v>1</v>
       </c>
       <c r="N4380">
@@ -97700,7 +97727,7 @@
       <c r="A4684" t="s">
         <v>4696</v>
       </c>
-      <c r="G4684">
+      <c r="F4684">
         <v>1</v>
       </c>
       <c r="N4684">
@@ -100109,7 +100136,7 @@
       <c r="A4903" t="s">
         <v>4915</v>
       </c>
-      <c r="H4903">
+      <c r="G4903">
         <v>1</v>
       </c>
       <c r="N4903">
@@ -103706,7 +103733,7 @@
       <c r="A5230" t="s">
         <v>5242</v>
       </c>
-      <c r="I5230">
+      <c r="H5230">
         <v>1</v>
       </c>
       <c r="N5230">
@@ -117559,6 +117586,61 @@
         <v>1</v>
       </c>
       <c r="N6489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6490" spans="1:14">
+      <c r="A6490" t="s">
+        <v>6502</v>
+      </c>
+      <c r="M6490">
+        <v>1</v>
+      </c>
+      <c r="N6490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6491" spans="1:14">
+      <c r="A6491" t="s">
+        <v>6503</v>
+      </c>
+      <c r="M6491">
+        <v>1</v>
+      </c>
+      <c r="N6491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6492" spans="1:14">
+      <c r="A6492" t="s">
+        <v>6504</v>
+      </c>
+      <c r="M6492">
+        <v>1</v>
+      </c>
+      <c r="N6492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6493" spans="1:14">
+      <c r="A6493" t="s">
+        <v>6505</v>
+      </c>
+      <c r="M6493">
+        <v>1</v>
+      </c>
+      <c r="N6493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6494" spans="1:14">
+      <c r="A6494" t="s">
+        <v>6506</v>
+      </c>
+      <c r="M6494">
+        <v>1</v>
+      </c>
+      <c r="N6494">
         <v>1</v>
       </c>
     </row>
@@ -117566,7 +117648,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N6489" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N6494" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -117574,31 +117656,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6502</v>
+        <v>6507</v>
       </c>
       <c r="B1" t="s">
-        <v>6503</v>
+        <v>6508</v>
       </c>
       <c r="C1" t="s">
-        <v>6504</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6505</v>
+        <v>6510</v>
       </c>
       <c r="B2">
         <v>1525</v>
@@ -117609,7 +117693,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6506</v>
+        <v>6511</v>
       </c>
       <c r="B3">
         <v>1662</v>
@@ -117620,7 +117704,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6507</v>
+        <v>6512</v>
       </c>
       <c r="B4">
         <v>1652</v>
@@ -117631,7 +117715,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6508</v>
+        <v>6513</v>
       </c>
       <c r="B5">
         <v>1602</v>
@@ -117642,7 +117726,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6509</v>
+        <v>6514</v>
       </c>
       <c r="B6">
         <v>1605</v>
@@ -117653,7 +117737,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6510</v>
+        <v>6515</v>
       </c>
       <c r="B7">
         <v>1753</v>
@@ -117664,7 +117748,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6511</v>
+        <v>6516</v>
       </c>
       <c r="B8">
         <v>1799</v>
@@ -117675,7 +117759,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6512</v>
+        <v>6517</v>
       </c>
       <c r="B9">
         <v>1801</v>
@@ -117686,7 +117770,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6513</v>
+        <v>6518</v>
       </c>
       <c r="B10">
         <v>1840</v>
@@ -117697,7 +117781,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6514</v>
+        <v>6519</v>
       </c>
       <c r="B11">
         <v>1718</v>
@@ -117708,7 +117792,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6515</v>
+        <v>6520</v>
       </c>
       <c r="B12">
         <v>1367</v>
@@ -117719,7 +117803,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6516</v>
+        <v>6521</v>
       </c>
       <c r="B13">
         <v>1430</v>
@@ -117730,7 +117814,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6517</v>
+        <v>6522</v>
       </c>
       <c r="B14">
         <v>1896</v>
@@ -117741,7 +117825,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6518</v>
+        <v>6523</v>
       </c>
       <c r="B15">
         <v>1769</v>
@@ -117752,7 +117836,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6519</v>
+        <v>6524</v>
       </c>
       <c r="B16">
         <v>1731</v>
@@ -117763,7 +117847,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6520</v>
+        <v>6525</v>
       </c>
       <c r="B17">
         <v>1080</v>
@@ -117774,7 +117858,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6521</v>
+        <v>6526</v>
       </c>
       <c r="B18">
         <v>2113</v>
@@ -117785,7 +117869,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6522</v>
+        <v>6527</v>
       </c>
       <c r="B19">
         <v>1502</v>
@@ -117796,7 +117880,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6523</v>
+        <v>6528</v>
       </c>
       <c r="B20">
         <v>1338</v>
@@ -117807,7 +117891,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6524</v>
+        <v>6529</v>
       </c>
       <c r="B21">
         <v>763</v>
@@ -117818,7 +117902,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6525</v>
+        <v>6530</v>
       </c>
       <c r="B22">
         <v>1100</v>
@@ -117829,7 +117913,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6526</v>
+        <v>6531</v>
       </c>
       <c r="B23">
         <v>840</v>
@@ -117840,7 +117924,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6527</v>
+        <v>6532</v>
       </c>
       <c r="B24">
         <v>221</v>
@@ -117851,20 +117935,31 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6528</v>
+        <v>6533</v>
       </c>
       <c r="B25">
-        <v>34107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6530</v>
+        <v>6534</v>
       </c>
       <c r="B26">
+        <v>34127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>6536</v>
+      </c>
+      <c r="B27">
         <v>245</v>
       </c>
     </row>
@@ -117872,7 +117967,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C26" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>